--- a/documents/テスト項目書(本番環境).xlsx
+++ b/documents/テスト項目書(本番環境).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -2385,23 +2385,12 @@
     <t>パスワードの入力欄直下に赤字で「メールアドレスまたはパスワードが違います。」とエラー表示されることを確認</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>①ログイン画面にて「メールアドレス」にて登録していないアドレスを入力し「パスワード」にては登録済みのパスワードを入力する
 ②「ログイン」ボタンを押下</t>
   </si>
   <si>
     <t>①ログイン画面にて「パスワード」にて登録していないアドレスを入力し「メールアドレス」にては登録済みのパスワードを入力する
 ②「ログイン」ボタンを押下</t>
-  </si>
-  <si>
-    <t>①MAMPを停止 -②ログイン画面にて「パスワード」にて登録していないアドレスを入力し「メールアドレス」にては登録済みのパスワードを入力する
-③「ログイン」ボタンを押下</t>
-  </si>
-  <si>
-    <t>「ネットワークエラーが発生しました。戻ってもう一度操作をやり直すかログイン画面からやり直してください。」とのエラー表示が出ることを確認</t>
   </si>
   <si>
     <t>①ログイン画面にて「アカウント登録はこちら」ボタンを押下
@@ -2466,7 +2455,7 @@
   </si>
   <si>
     <t>①ログイン画面にて「アカウント登録はこちら」ボタンを押下
-②アカウント登録画面にて「パスワード」に半角英数字以外を入力する</t>
+②アカウント登録画面にて「パスワード」に半角英数字を入力する</t>
   </si>
   <si>
     <t>パスワードが「●」で表示されることを確認</t>
@@ -2490,12 +2479,6 @@
     <t>アカウント登録画面にて入力したニックネーム、メールアドレス、パスワードの入力内容がそのまま表示されていることを確認</t>
   </si>
   <si>
-    <t>①ログイン画面にて「アカウント登録はこちら」ボタンを押下
-②MAMPを停止
-③アカウント登録画面にて「ニックネーム、メールアドレス、パスワード」をそれぞれエラーの出ない形式で入力する
-④アカウント登録画面にて「確認する」ボタンを押下</t>
-  </si>
-  <si>
     <t xml:space="preserve">①ログイン画面にて「アカウント登録はこちら」ボタンを押下
 ②アカウント登録画面にて「ニックネーム、メールアドレス、パスワード」をそれぞれエラーの出ない形式で入力する
 ③アカウント登録画面にて「確認する」ボタンを押下
@@ -2504,16 +2487,6 @@
   </si>
   <si>
     <t>アカウント登録画面にて入力したニックネームの内容がそのまま反映されていることを確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①ログイン画面にて「アカウント登録はこちら」ボタンを押下
-②アカウント登録画面にて「ニックネーム、メールアドレス、パスワード」をそれぞれエラーの出ない形式で入力する
-③アカウント登録画面にて「確認する」ボタンを押下
-④アカウント登録確認画面にてパスワードの内容を確認
-</t>
-  </si>
-  <si>
-    <t>アカウント登録画面にて入力したパスワードの内容がそのまま反映されていることを確認</t>
   </si>
   <si>
     <t xml:space="preserve">①ログイン画面にて「アカウント登録はこちら」ボタンを押下
@@ -2594,6 +2567,15 @@
     <t>アカウント登録確認画面にて「登録する」ボタンを押下した日時が「yyyy-MM-dd  hh:mm:ss」の形式で表示されていることを確認</t>
   </si>
   <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>2023/4/5 0:04にアカウント登録をしたがデータベース上では「2023-04-04 15:04:10.000」と表示されている</t>
+  </si>
+  <si>
+    <t>必須</t>
+  </si>
+  <si>
     <t>①ログイン画面にて「アカウント登録はこちら」ボタンを押下
 ②アカウント登録画面にて「ニックネーム、メールアドレス、パスワード」をそれぞれエラーの出ない形式で入力する
 ③アカウント登録画面にて「確認する」ボタンを押下
@@ -2601,13 +2583,6 @@
 ⑤データベースにて「update_time」の項目を確認</t>
   </si>
   <si>
-    <t>①MAMPを停止 -②ログイン画面にて「アカウント登録はこちら」ボタンを押下
-③アカウント登録画面にて「ニックネーム、メールアドレス、パスワード」をそれぞれエラーの出ない形式で入力する
-④アカウント登録画面にて「確認する」ボタンを押下
-⑤アカウント登録確認画面にて「登録する」ボタンを押下</t>
-  </si>
-  <si>
     <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
 ②「ログイン」ボタンを押下</t>
   </si>
@@ -2625,12 +2600,6 @@
   </si>
   <si>
     <t>カレンダー表示直下の予定部分に「yyyy年MM月dd日」の形式でクリックした日付が表示されることを確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①MAMPの停止
-②ログイン画面にて登録済みのメールアドレス・パスワードを入力
-③「ログイン」ボタンを押下
-</t>
   </si>
   <si>
     <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -2811,38 +2780,6 @@
   <si>
     <t>①「yyyy年」の部分は「▶︎」ボタン押下前の年より1ヶ月後の表示になっていることを確認
 ②「MM月dd日」の部分は「▶︎」ボタン押下前と押下後で「月」と選択状態と「日」の表示が変わっていないことを確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
-②「ログイン」ボタンを押下 -③MAMPを停止
-④カレンダー画面にて画面上部の「年」表示横の「◀︎◀︎」ボタンを押下
-</t>
-  </si>
-  <si>
-    <t>①カレンダーが問題なく表示されることを確認
-②選択されている日付の予定内容がカレンダー表示部分の下部に表示されることを確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
-②「ログイン」ボタンを押下 -③MAMPを停止
-④カレンダー画面にて画面上部の「年」表示横の「▶︎▶︎」ボタンを押下
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
-②「ログイン」ボタンを押下 -③MAMPを停止
-④カレンダー画面にて画面上部の「年」表示横の「◀︎」ボタンを押下
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
-②「ログイン」ボタンを押下 -③MAMPを停止
-④カレンダー画面にて画面上部の「年」表示横の「▶︎」ボタンを押下
-</t>
   </si>
   <si>
     <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -2935,15 +2872,6 @@
 yyyy年MM月dd日    終日  予定の内容　　確認　削除</t>
-  </si>
-  <si>
-    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
-②「ログイン」ボタンを押下
-③MAMPを停止
-④カレンダー画面にて「予定の追加」ボタンを押下 -⑤予定追加画面にて「予定」の入力欄にエラーの出ない形式で文字を入力する
-⑥「追加」ボタンを押下 -</t>
   </si>
   <si>
     <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -3227,6 +3155,9 @@
 予定開始日〜予定終了日の間の日付をクリックしても編集後の予定が表示されなければエラーとする</t>
   </si>
   <si>
+    <t>予定追加操作では問題ないが、予定編集画面より「終日フラグ」をつけた状態で「保存」ボタンを押下するとエラーが表示される</t>
+  </si>
+  <si>
     <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下  ※カレンダー追加画面より既に予定を追加済みであるものとする
 ②予定確認画面にて「編集」ボタンを押下
@@ -3255,14 +3186,6 @@
 ⑤予定終了日の「日」のプルダウンを確認</t>
   </si>
   <si>
-    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 -②予定確認画面にて「編集」ボタンを押下
-③MAMPを停止 -④予定編集画面にて「保存」ボタンを押下 - -</t>
-  </si>
-  <si>
     <t>①カレンダー画面にて予定確認部分の「削除」ボタンを押下  ※予定は既に追加済みであることとする  ②予定削除画面にて「削除」ボタンを押下 @@ -3290,21 +3213,6 @@
   </si>
   <si>
     <t>予定内容が削除されていないことを確認</t>
-  </si>
-  <si>
-    <t>①カレンダー画面にて予定確認部分の「削除」ボタンを押下
-②MAMPを停止
-③予定削除画面にて「削除」ボタンを押下 -</t>
-  </si>
-  <si>
-    <t>アカウント情報画面</t>
-  </si>
-  <si>
-    <t>①ログイン画面にて登録済みの「メールアドレス、パスワード」を入力
-②「ログイン」ボタン押下
-③MAMPを停止
-④カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下</t>
   </si>
   <si>
     <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 @@ -3353,16 +3261,6 @@
 ※変更前のニックネームが表示されている場合はエラーとする    ②データベース上の「」テーブル対象アカウントの「user_name」項目にて変更後のニックネームが表示されていることを確認 -</t>
-  </si>
-  <si>
-    <t>①ログイン画面にて登録済みの「メールアドレス、パスワード」を入力
-②「ログイン」ボタン押下
-③MAMPを停止
-④カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 -⑤アカウント画面にて「ニックネーム変更」ボタンを押下 -⑥ニックネーム変更画面にて「新しいニックネーム、パスワード」を入力 -⑦「保存」ボタンを押下  </t>
   </si>
   <si>
@@ -3425,16 +3323,6 @@
 </t>
   </si>
   <si>
-    <t>①ログイン画面にて登録済みの「メールアドレス、パスワード」を入力
-②「ログイン」ボタン押下
-③MAMPを停止
-④カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 -⑤アカウント画面にて「メールアドレス変更」ボタンを押下 -⑥メールアドレス変更画面にて「新しいメールアドレス、パスワード」を入力 -⑦「保存」ボタンを押下 -</t>
-  </si>
-  <si>
     <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下  ②アカウント画面にて「パスワード変更」ボタンを押下  ③パスワード変更画面にて「新しいパスワード」の入力欄を空欄したまま「保存」ボタンを押下</t>
@@ -3494,16 +3382,6 @@
 </t>
   </si>
   <si>
-    <t>①ログイン画面にて登録済みの「メールアドレス、パスワード」を入力
-②「ログイン」ボタン押下
-③MAMPを停止
-④カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 -⑤アカウント画面にて「パスワード変更」ボタンを押下 -⑥パスワード変更画面にて「新しいパスワード、現在のパスワード」を入力 -⑦「保存」ボタンを押下 -</t>
-  </si>
-  <si>
     <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下  ②アカウント画面にて「アカウントの削除」ボタンを押下  ③アカウント削除確認画面にて「削除」ボタンを押下 @@ -3515,15 +3393,6 @@
 ②データベース上で対象アカウントの「delete_flg」に「1」と入力されていることを確認</t>
   </si>
   <si>
-    <t>①ログイン画面にて登録済みの「メールアドレス、パスワード」を入力
-②「ログイン」ボタン押下
-③MAMPを停止
-④カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 -⑤アカウント画面にて「アカウントの削除」ボタンを押下 -⑥アカウント削除画面にて「削除」ボタンを押下 -</t>
-  </si>
-  <si>
     <t>総合テスト</t>
   </si>
   <si>
@@ -3537,6 +3406,9 @@
     <t>①エラー等が表示されないことを確認
 ②処理速度が極端に遅くならないことを確認
 画面遷移までに+5秒以上経過した場合はエラーとする</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>①ログイン画面にてメールアドレス、パスワードを未入力にし「ログイン」ボタンを押下
@@ -4487,14 +4359,14 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5625,7 +5497,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5636,7 +5508,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -8003,7 +7875,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -8082,9 +7954,11 @@
         <v>151</v>
       </c>
       <c r="E3" t="s" s="29">
-        <v>152</v>
-      </c>
-      <c r="F3" s="31"/>
+        <v>33</v>
+      </c>
+      <c r="F3" s="30">
+        <v>45021</v>
+      </c>
       <c r="G3" t="s" s="28">
         <v>17</v>
       </c>
@@ -8102,15 +7976,17 @@
         <v>30</v>
       </c>
       <c r="C4" t="s" s="34">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s" s="34">
         <v>151</v>
       </c>
       <c r="E4" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F4" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F4" s="36">
+        <v>45021</v>
+      </c>
       <c r="G4" t="s" s="34">
         <v>17</v>
       </c>
@@ -8128,15 +8004,17 @@
         <v>30</v>
       </c>
       <c r="C5" t="s" s="34">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s" s="34">
         <v>151</v>
       </c>
       <c r="E5" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F5" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F5" s="36">
+        <v>45021</v>
+      </c>
       <c r="G5" t="s" s="34">
         <v>17</v>
       </c>
@@ -8146,23 +8024,25 @@
       </c>
       <c r="J5" s="38"/>
     </row>
-    <row r="6" ht="82.9" customHeight="1">
+    <row r="6" ht="72.95" customHeight="1">
       <c r="A6" s="33">
         <v>4</v>
       </c>
       <c r="B6" t="s" s="34">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s" s="34">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s" s="34">
         <v>155</v>
       </c>
-      <c r="D6" t="s" s="34">
-        <v>156</v>
-      </c>
       <c r="E6" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F6" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F6" s="36">
+        <v>45021</v>
+      </c>
       <c r="G6" t="s" s="34">
         <v>17</v>
       </c>
@@ -8172,7 +8052,7 @@
       </c>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" ht="72.95" customHeight="1">
+    <row r="7" ht="71.7" customHeight="1">
       <c r="A7" s="33">
         <v>5</v>
       </c>
@@ -8180,15 +8060,17 @@
         <v>40</v>
       </c>
       <c r="C7" t="s" s="34">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s" s="34">
         <v>157</v>
       </c>
-      <c r="D7" t="s" s="34">
-        <v>158</v>
-      </c>
       <c r="E7" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F7" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F7" s="36">
+        <v>45021</v>
+      </c>
       <c r="G7" t="s" s="34">
         <v>17</v>
       </c>
@@ -8206,15 +8088,17 @@
         <v>40</v>
       </c>
       <c r="C8" t="s" s="34">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s" s="34">
         <v>159</v>
       </c>
-      <c r="D8" t="s" s="34">
-        <v>160</v>
-      </c>
       <c r="E8" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F8" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F8" s="36">
+        <v>45021</v>
+      </c>
       <c r="G8" t="s" s="34">
         <v>17</v>
       </c>
@@ -8232,15 +8116,17 @@
         <v>40</v>
       </c>
       <c r="C9" t="s" s="34">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s" s="34">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F9" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F9" s="36">
+        <v>45021</v>
+      </c>
       <c r="G9" t="s" s="34">
         <v>17</v>
       </c>
@@ -8250,7 +8136,7 @@
       </c>
       <c r="J9" s="38"/>
     </row>
-    <row r="10" ht="71.7" customHeight="1">
+    <row r="10" ht="72.95" customHeight="1">
       <c r="A10" s="33">
         <v>8</v>
       </c>
@@ -8258,15 +8144,17 @@
         <v>40</v>
       </c>
       <c r="C10" t="s" s="34">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s" s="34">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F10" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F10" s="36">
+        <v>45021</v>
+      </c>
       <c r="G10" t="s" s="34">
         <v>17</v>
       </c>
@@ -8276,7 +8164,7 @@
       </c>
       <c r="J10" s="38"/>
     </row>
-    <row r="11" ht="72.95" customHeight="1">
+    <row r="11" ht="114.75" customHeight="1">
       <c r="A11" s="33">
         <v>9</v>
       </c>
@@ -8284,15 +8172,17 @@
         <v>40</v>
       </c>
       <c r="C11" t="s" s="34">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s" s="34">
         <v>162</v>
       </c>
       <c r="E11" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F11" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F11" s="36">
+        <v>45021</v>
+      </c>
       <c r="G11" t="s" s="34">
         <v>17</v>
       </c>
@@ -8302,7 +8192,7 @@
       </c>
       <c r="J11" s="38"/>
     </row>
-    <row r="12" ht="114.75" customHeight="1">
+    <row r="12" ht="112.45" customHeight="1">
       <c r="A12" s="33">
         <v>10</v>
       </c>
@@ -8310,15 +8200,17 @@
         <v>40</v>
       </c>
       <c r="C12" t="s" s="34">
+        <v>163</v>
+      </c>
+      <c r="D12" t="s" s="34">
         <v>164</v>
       </c>
-      <c r="D12" t="s" s="34">
-        <v>165</v>
-      </c>
       <c r="E12" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F12" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F12" s="36">
+        <v>45021</v>
+      </c>
       <c r="G12" t="s" s="34">
         <v>17</v>
       </c>
@@ -8328,7 +8220,7 @@
       </c>
       <c r="J12" s="38"/>
     </row>
-    <row r="13" ht="112.45" customHeight="1">
+    <row r="13" ht="99.8" customHeight="1">
       <c r="A13" s="33">
         <v>11</v>
       </c>
@@ -8336,15 +8228,17 @@
         <v>40</v>
       </c>
       <c r="C13" t="s" s="34">
+        <v>165</v>
+      </c>
+      <c r="D13" t="s" s="34">
         <v>166</v>
       </c>
-      <c r="D13" t="s" s="34">
-        <v>167</v>
-      </c>
       <c r="E13" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F13" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F13" s="36">
+        <v>45021</v>
+      </c>
       <c r="G13" t="s" s="34">
         <v>17</v>
       </c>
@@ -8354,7 +8248,7 @@
       </c>
       <c r="J13" s="38"/>
     </row>
-    <row r="14" ht="99.8" customHeight="1">
+    <row r="14" ht="71.7" customHeight="1">
       <c r="A14" s="33">
         <v>12</v>
       </c>
@@ -8362,15 +8256,17 @@
         <v>40</v>
       </c>
       <c r="C14" t="s" s="34">
+        <v>167</v>
+      </c>
+      <c r="D14" t="s" s="34">
         <v>168</v>
       </c>
-      <c r="D14" t="s" s="34">
-        <v>169</v>
-      </c>
       <c r="E14" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F14" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F14" s="36">
+        <v>45021</v>
+      </c>
       <c r="G14" t="s" s="34">
         <v>17</v>
       </c>
@@ -8388,15 +8284,17 @@
         <v>40</v>
       </c>
       <c r="C15" t="s" s="34">
+        <v>169</v>
+      </c>
+      <c r="D15" t="s" s="34">
         <v>170</v>
       </c>
-      <c r="D15" t="s" s="34">
-        <v>171</v>
-      </c>
       <c r="E15" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F15" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F15" s="36">
+        <v>45021</v>
+      </c>
       <c r="G15" t="s" s="34">
         <v>17</v>
       </c>
@@ -8406,7 +8304,7 @@
       </c>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" ht="71.7" customHeight="1">
+    <row r="16" ht="87.95" customHeight="1">
       <c r="A16" s="33">
         <v>14</v>
       </c>
@@ -8414,15 +8312,17 @@
         <v>40</v>
       </c>
       <c r="C16" t="s" s="34">
+        <v>171</v>
+      </c>
+      <c r="D16" t="s" s="34">
         <v>172</v>
       </c>
-      <c r="D16" t="s" s="34">
-        <v>173</v>
-      </c>
       <c r="E16" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F16" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F16" s="36">
+        <v>45021</v>
+      </c>
       <c r="G16" t="s" s="34">
         <v>17</v>
       </c>
@@ -8432,7 +8332,7 @@
       </c>
       <c r="J16" s="38"/>
     </row>
-    <row r="17" ht="87.95" customHeight="1">
+    <row r="17" ht="132.95" customHeight="1">
       <c r="A17" s="33">
         <v>15</v>
       </c>
@@ -8440,15 +8340,17 @@
         <v>40</v>
       </c>
       <c r="C17" t="s" s="34">
+        <v>173</v>
+      </c>
+      <c r="D17" t="s" s="34">
         <v>174</v>
       </c>
-      <c r="D17" t="s" s="34">
-        <v>175</v>
-      </c>
       <c r="E17" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F17" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F17" s="36">
+        <v>45021</v>
+      </c>
       <c r="G17" t="s" s="34">
         <v>17</v>
       </c>
@@ -8458,23 +8360,25 @@
       </c>
       <c r="J17" s="38"/>
     </row>
-    <row r="18" ht="132.95" customHeight="1">
+    <row r="18" ht="150" customHeight="1">
       <c r="A18" s="33">
         <v>16</v>
       </c>
       <c r="B18" t="s" s="34">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s" s="34">
+        <v>175</v>
+      </c>
+      <c r="D18" t="s" s="34">
         <v>176</v>
       </c>
-      <c r="D18" t="s" s="34">
-        <v>177</v>
-      </c>
       <c r="E18" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F18" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F18" s="36">
+        <v>45021</v>
+      </c>
       <c r="G18" t="s" s="34">
         <v>17</v>
       </c>
@@ -8484,23 +8388,25 @@
       </c>
       <c r="J18" s="38"/>
     </row>
-    <row r="19" ht="123.25" customHeight="1">
+    <row r="19" ht="182" customHeight="1">
       <c r="A19" s="33">
         <v>17</v>
       </c>
       <c r="B19" t="s" s="34">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s" s="34">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s" s="34">
         <v>178</v>
       </c>
-      <c r="D19" t="s" s="34">
-        <v>156</v>
-      </c>
       <c r="E19" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F19" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F19" s="36">
+        <v>45021</v>
+      </c>
       <c r="G19" t="s" s="34">
         <v>17</v>
       </c>
@@ -8510,12 +8416,12 @@
       </c>
       <c r="J19" s="38"/>
     </row>
-    <row r="20" ht="150" customHeight="1">
+    <row r="20" ht="194.95" customHeight="1">
       <c r="A20" s="33">
         <v>18</v>
       </c>
       <c r="B20" t="s" s="34">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s" s="34">
         <v>179</v>
@@ -8524,9 +8430,11 @@
         <v>180</v>
       </c>
       <c r="E20" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F20" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F20" s="36">
+        <v>45021</v>
+      </c>
       <c r="G20" t="s" s="34">
         <v>17</v>
       </c>
@@ -8536,12 +8444,12 @@
       </c>
       <c r="J20" s="38"/>
     </row>
-    <row r="21" ht="150" customHeight="1">
+    <row r="21" ht="151.95" customHeight="1">
       <c r="A21" s="33">
         <v>19</v>
       </c>
       <c r="B21" t="s" s="34">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s" s="34">
         <v>181</v>
@@ -8550,9 +8458,11 @@
         <v>182</v>
       </c>
       <c r="E21" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F21" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F21" s="36">
+        <v>45021</v>
+      </c>
       <c r="G21" t="s" s="34">
         <v>17</v>
       </c>
@@ -8562,23 +8472,25 @@
       </c>
       <c r="J21" s="38"/>
     </row>
-    <row r="22" ht="182" customHeight="1">
+    <row r="22" ht="165" customHeight="1">
       <c r="A22" s="33">
         <v>20</v>
       </c>
       <c r="B22" t="s" s="34">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s" s="34">
         <v>183</v>
       </c>
       <c r="D22" t="s" s="34">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E22" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F22" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F22" s="36">
+        <v>45021</v>
+      </c>
       <c r="G22" t="s" s="34">
         <v>17</v>
       </c>
@@ -8588,7 +8500,7 @@
       </c>
       <c r="J22" s="38"/>
     </row>
-    <row r="23" ht="194.95" customHeight="1">
+    <row r="23" ht="151.95" customHeight="1">
       <c r="A23" s="33">
         <v>21</v>
       </c>
@@ -8596,15 +8508,17 @@
         <v>58</v>
       </c>
       <c r="C23" t="s" s="34">
+        <v>184</v>
+      </c>
+      <c r="D23" t="s" s="34">
         <v>185</v>
       </c>
-      <c r="D23" t="s" s="34">
-        <v>186</v>
-      </c>
       <c r="E23" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F23" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F23" s="36">
+        <v>45021</v>
+      </c>
       <c r="G23" t="s" s="34">
         <v>17</v>
       </c>
@@ -8622,15 +8536,17 @@
         <v>58</v>
       </c>
       <c r="C24" t="s" s="34">
+        <v>186</v>
+      </c>
+      <c r="D24" t="s" s="34">
         <v>187</v>
       </c>
-      <c r="D24" t="s" s="34">
-        <v>188</v>
-      </c>
       <c r="E24" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F24" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F24" s="36">
+        <v>45021</v>
+      </c>
       <c r="G24" t="s" s="34">
         <v>17</v>
       </c>
@@ -8640,7 +8556,7 @@
       </c>
       <c r="J24" s="38"/>
     </row>
-    <row r="25" ht="165" customHeight="1">
+    <row r="25" ht="151.95" customHeight="1">
       <c r="A25" s="33">
         <v>23</v>
       </c>
@@ -8648,15 +8564,17 @@
         <v>58</v>
       </c>
       <c r="C25" t="s" s="34">
+        <v>188</v>
+      </c>
+      <c r="D25" t="s" s="34">
         <v>189</v>
       </c>
-      <c r="D25" t="s" s="34">
-        <v>180</v>
-      </c>
       <c r="E25" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F25" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F25" s="36">
+        <v>45021</v>
+      </c>
       <c r="G25" t="s" s="34">
         <v>17</v>
       </c>
@@ -8666,7 +8584,7 @@
       </c>
       <c r="J25" s="38"/>
     </row>
-    <row r="26" ht="151.95" customHeight="1">
+    <row r="26" ht="165" customHeight="1">
       <c r="A26" s="33">
         <v>24</v>
       </c>
@@ -8680,19 +8598,23 @@
         <v>191</v>
       </c>
       <c r="E26" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F26" s="37"/>
+        <v>192</v>
+      </c>
+      <c r="F26" s="36">
+        <v>45021</v>
+      </c>
       <c r="G26" t="s" s="34">
         <v>17</v>
       </c>
-      <c r="H26" s="37"/>
+      <c r="H26" t="s" s="34">
+        <v>193</v>
+      </c>
       <c r="I26" t="s" s="34">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="J26" s="38"/>
     </row>
-    <row r="27" ht="151.95" customHeight="1">
+    <row r="27" ht="165" customHeight="1">
       <c r="A27" s="33">
         <v>25</v>
       </c>
@@ -8700,41 +8622,47 @@
         <v>58</v>
       </c>
       <c r="C27" t="s" s="34">
+        <v>195</v>
+      </c>
+      <c r="D27" t="s" s="34">
+        <v>191</v>
+      </c>
+      <c r="E27" t="s" s="35">
         <v>192</v>
       </c>
-      <c r="D27" t="s" s="34">
+      <c r="F27" s="36">
+        <v>45021</v>
+      </c>
+      <c r="G27" t="s" s="34">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s" s="34">
         <v>193</v>
       </c>
-      <c r="E27" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H27" s="37"/>
       <c r="I27" t="s" s="34">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="J27" s="38"/>
     </row>
-    <row r="28" ht="151.95" customHeight="1">
+    <row r="28" ht="81.15" customHeight="1">
       <c r="A28" s="33">
         <v>26</v>
       </c>
       <c r="B28" t="s" s="34">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s" s="34">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D28" t="s" s="34">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E28" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F28" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F28" s="36">
+        <v>45021</v>
+      </c>
       <c r="G28" t="s" s="34">
         <v>17</v>
       </c>
@@ -8744,23 +8672,25 @@
       </c>
       <c r="J28" s="38"/>
     </row>
-    <row r="29" ht="165" customHeight="1">
+    <row r="29" ht="81.15" customHeight="1">
       <c r="A29" s="33">
         <v>27</v>
       </c>
       <c r="B29" t="s" s="34">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s" s="34">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s" s="34">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E29" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F29" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F29" s="36">
+        <v>45021</v>
+      </c>
       <c r="G29" t="s" s="34">
         <v>17</v>
       </c>
@@ -8770,23 +8700,25 @@
       </c>
       <c r="J29" s="38"/>
     </row>
-    <row r="30" ht="165" customHeight="1">
+    <row r="30" ht="113.5" customHeight="1">
       <c r="A30" s="33">
         <v>28</v>
       </c>
       <c r="B30" t="s" s="34">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s" s="34">
         <v>198</v>
       </c>
       <c r="D30" t="s" s="34">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E30" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F30" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F30" s="36">
+        <v>45021</v>
+      </c>
       <c r="G30" t="s" s="34">
         <v>17</v>
       </c>
@@ -8796,23 +8728,25 @@
       </c>
       <c r="J30" s="38"/>
     </row>
-    <row r="31" ht="149.55" customHeight="1">
+    <row r="31" ht="110.9" customHeight="1">
       <c r="A31" s="33">
         <v>29</v>
       </c>
       <c r="B31" t="s" s="34">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s" s="34">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D31" t="s" s="34">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F31" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F31" s="36">
+        <v>45021</v>
+      </c>
       <c r="G31" t="s" s="34">
         <v>17</v>
       </c>
@@ -8822,7 +8756,7 @@
       </c>
       <c r="J31" s="38"/>
     </row>
-    <row r="32" ht="81.15" customHeight="1">
+    <row r="32" ht="110.9" customHeight="1">
       <c r="A32" s="33">
         <v>30</v>
       </c>
@@ -8830,15 +8764,17 @@
         <v>62</v>
       </c>
       <c r="C32" t="s" s="34">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D32" t="s" s="34">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E32" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F32" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F32" s="36">
+        <v>45021</v>
+      </c>
       <c r="G32" t="s" s="34">
         <v>17</v>
       </c>
@@ -8848,7 +8784,7 @@
       </c>
       <c r="J32" s="38"/>
     </row>
-    <row r="33" ht="81.15" customHeight="1">
+    <row r="33" ht="110.9" customHeight="1">
       <c r="A33" s="33">
         <v>31</v>
       </c>
@@ -8856,15 +8792,17 @@
         <v>62</v>
       </c>
       <c r="C33" t="s" s="34">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D33" t="s" s="34">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E33" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F33" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F33" s="36">
+        <v>45021</v>
+      </c>
       <c r="G33" t="s" s="34">
         <v>17</v>
       </c>
@@ -8874,7 +8812,7 @@
       </c>
       <c r="J33" s="38"/>
     </row>
-    <row r="34" ht="113.5" customHeight="1">
+    <row r="34" ht="110.9" customHeight="1">
       <c r="A34" s="33">
         <v>32</v>
       </c>
@@ -8882,15 +8820,17 @@
         <v>62</v>
       </c>
       <c r="C34" t="s" s="34">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D34" t="s" s="34">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E34" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F34" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F34" s="36">
+        <v>45021</v>
+      </c>
       <c r="G34" t="s" s="34">
         <v>17</v>
       </c>
@@ -8900,7 +8840,7 @@
       </c>
       <c r="J34" s="38"/>
     </row>
-    <row r="35" ht="113.5" customHeight="1">
+    <row r="35" ht="168.3" customHeight="1">
       <c r="A35" s="33">
         <v>33</v>
       </c>
@@ -8908,15 +8848,17 @@
         <v>62</v>
       </c>
       <c r="C35" t="s" s="34">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s" s="34">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="E35" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F35" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F35" s="36">
+        <v>45021</v>
+      </c>
       <c r="G35" t="s" s="34">
         <v>17</v>
       </c>
@@ -8926,7 +8868,7 @@
       </c>
       <c r="J35" s="38"/>
     </row>
-    <row r="36" ht="110.9" customHeight="1">
+    <row r="36" ht="141.35" customHeight="1">
       <c r="A36" s="33">
         <v>34</v>
       </c>
@@ -8934,15 +8876,17 @@
         <v>62</v>
       </c>
       <c r="C36" t="s" s="34">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s" s="34">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F36" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F36" s="36">
+        <v>45021</v>
+      </c>
       <c r="G36" t="s" s="34">
         <v>17</v>
       </c>
@@ -8952,7 +8896,7 @@
       </c>
       <c r="J36" s="38"/>
     </row>
-    <row r="37" ht="110.9" customHeight="1">
+    <row r="37" ht="141.35" customHeight="1">
       <c r="A37" s="33">
         <v>35</v>
       </c>
@@ -8960,15 +8904,17 @@
         <v>62</v>
       </c>
       <c r="C37" t="s" s="34">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D37" t="s" s="34">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E37" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F37" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F37" s="36">
+        <v>45021</v>
+      </c>
       <c r="G37" t="s" s="34">
         <v>17</v>
       </c>
@@ -8978,7 +8924,7 @@
       </c>
       <c r="J37" s="38"/>
     </row>
-    <row r="38" ht="110.9" customHeight="1">
+    <row r="38" ht="172.75" customHeight="1">
       <c r="A38" s="33">
         <v>36</v>
       </c>
@@ -8986,15 +8932,17 @@
         <v>62</v>
       </c>
       <c r="C38" t="s" s="34">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D38" t="s" s="34">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E38" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F38" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F38" s="36">
+        <v>45021</v>
+      </c>
       <c r="G38" t="s" s="34">
         <v>17</v>
       </c>
@@ -9004,7 +8952,7 @@
       </c>
       <c r="J38" s="38"/>
     </row>
-    <row r="39" ht="110.9" customHeight="1">
+    <row r="39" ht="107.95" customHeight="1">
       <c r="A39" s="33">
         <v>37</v>
       </c>
@@ -9012,15 +8960,17 @@
         <v>62</v>
       </c>
       <c r="C39" t="s" s="34">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D39" t="s" s="34">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E39" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F39" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F39" s="36">
+        <v>45021</v>
+      </c>
       <c r="G39" t="s" s="34">
         <v>17</v>
       </c>
@@ -9030,7 +8980,7 @@
       </c>
       <c r="J39" s="38"/>
     </row>
-    <row r="40" ht="168.3" customHeight="1">
+    <row r="40" ht="110.15" customHeight="1">
       <c r="A40" s="33">
         <v>38</v>
       </c>
@@ -9038,15 +8988,17 @@
         <v>62</v>
       </c>
       <c r="C40" t="s" s="34">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D40" t="s" s="34">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E40" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F40" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F40" s="36">
+        <v>45021</v>
+      </c>
       <c r="G40" t="s" s="34">
         <v>17</v>
       </c>
@@ -9056,7 +9008,7 @@
       </c>
       <c r="J40" s="38"/>
     </row>
-    <row r="41" ht="141.35" customHeight="1">
+    <row r="41" ht="110.15" customHeight="1">
       <c r="A41" s="33">
         <v>39</v>
       </c>
@@ -9064,15 +9016,17 @@
         <v>62</v>
       </c>
       <c r="C41" t="s" s="34">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D41" t="s" s="34">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E41" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F41" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F41" s="36">
+        <v>45021</v>
+      </c>
       <c r="G41" t="s" s="34">
         <v>17</v>
       </c>
@@ -9082,7 +9036,7 @@
       </c>
       <c r="J41" s="38"/>
     </row>
-    <row r="42" ht="141.35" customHeight="1">
+    <row r="42" ht="114.8" customHeight="1">
       <c r="A42" s="33">
         <v>40</v>
       </c>
@@ -9090,15 +9044,17 @@
         <v>62</v>
       </c>
       <c r="C42" t="s" s="34">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D42" t="s" s="34">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E42" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F42" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F42" s="36">
+        <v>45021</v>
+      </c>
       <c r="G42" t="s" s="34">
         <v>17</v>
       </c>
@@ -9108,7 +9064,7 @@
       </c>
       <c r="J42" s="38"/>
     </row>
-    <row r="43" ht="172.75" customHeight="1">
+    <row r="43" ht="96.3" customHeight="1">
       <c r="A43" s="33">
         <v>41</v>
       </c>
@@ -9116,15 +9072,17 @@
         <v>62</v>
       </c>
       <c r="C43" t="s" s="34">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D43" t="s" s="34">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E43" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F43" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F43" s="36">
+        <v>45021</v>
+      </c>
       <c r="G43" t="s" s="34">
         <v>17</v>
       </c>
@@ -9134,7 +9092,7 @@
       </c>
       <c r="J43" s="38"/>
     </row>
-    <row r="44" ht="107.95" customHeight="1">
+    <row r="44" ht="105" customHeight="1">
       <c r="A44" s="33">
         <v>42</v>
       </c>
@@ -9142,15 +9100,17 @@
         <v>62</v>
       </c>
       <c r="C44" t="s" s="34">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s" s="34">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E44" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F44" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F44" s="36">
+        <v>45021</v>
+      </c>
       <c r="G44" t="s" s="34">
         <v>17</v>
       </c>
@@ -9160,7 +9120,7 @@
       </c>
       <c r="J44" s="38"/>
     </row>
-    <row r="45" ht="110.15" customHeight="1">
+    <row r="45" ht="106" customHeight="1">
       <c r="A45" s="33">
         <v>43</v>
       </c>
@@ -9168,15 +9128,17 @@
         <v>62</v>
       </c>
       <c r="C45" t="s" s="34">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D45" t="s" s="34">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E45" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F45" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F45" s="36">
+        <v>45021</v>
+      </c>
       <c r="G45" t="s" s="34">
         <v>17</v>
       </c>
@@ -9186,7 +9148,7 @@
       </c>
       <c r="J45" s="38"/>
     </row>
-    <row r="46" ht="110.15" customHeight="1">
+    <row r="46" ht="124" customHeight="1">
       <c r="A46" s="33">
         <v>44</v>
       </c>
@@ -9194,15 +9156,17 @@
         <v>62</v>
       </c>
       <c r="C46" t="s" s="34">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D46" t="s" s="34">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E46" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F46" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F46" s="36">
+        <v>45021</v>
+      </c>
       <c r="G46" t="s" s="34">
         <v>17</v>
       </c>
@@ -9212,23 +9176,25 @@
       </c>
       <c r="J46" s="38"/>
     </row>
-    <row r="47" ht="114.8" customHeight="1">
+    <row r="47" ht="122" customHeight="1">
       <c r="A47" s="33">
         <v>45</v>
       </c>
       <c r="B47" t="s" s="34">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s" s="34">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D47" t="s" s="34">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F47" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F47" s="36">
+        <v>45021</v>
+      </c>
       <c r="G47" t="s" s="34">
         <v>17</v>
       </c>
@@ -9238,23 +9204,25 @@
       </c>
       <c r="J47" s="38"/>
     </row>
-    <row r="48" ht="96.3" customHeight="1">
+    <row r="48" ht="104.4" customHeight="1">
       <c r="A48" s="33">
         <v>46</v>
       </c>
       <c r="B48" t="s" s="34">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s" s="34">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D48" t="s" s="34">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E48" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F48" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F48" s="36">
+        <v>45021</v>
+      </c>
       <c r="G48" t="s" s="34">
         <v>17</v>
       </c>
@@ -9264,23 +9232,25 @@
       </c>
       <c r="J48" s="38"/>
     </row>
-    <row r="49" ht="105" customHeight="1">
+    <row r="49" ht="127.25" customHeight="1">
       <c r="A49" s="33">
         <v>47</v>
       </c>
       <c r="B49" t="s" s="34">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s" s="34">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D49" t="s" s="34">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E49" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F49" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F49" s="36">
+        <v>45021</v>
+      </c>
       <c r="G49" t="s" s="34">
         <v>17</v>
       </c>
@@ -9290,23 +9260,25 @@
       </c>
       <c r="J49" s="38"/>
     </row>
-    <row r="50" ht="106" customHeight="1">
+    <row r="50" ht="117.95" customHeight="1">
       <c r="A50" s="33">
         <v>48</v>
       </c>
       <c r="B50" t="s" s="34">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s" s="34">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D50" t="s" s="34">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E50" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F50" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F50" s="36">
+        <v>45021</v>
+      </c>
       <c r="G50" t="s" s="34">
         <v>17</v>
       </c>
@@ -9316,23 +9288,25 @@
       </c>
       <c r="J50" s="38"/>
     </row>
-    <row r="51" ht="124" customHeight="1">
+    <row r="51" ht="117.95" customHeight="1">
       <c r="A51" s="33">
         <v>49</v>
       </c>
       <c r="B51" t="s" s="34">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s" s="34">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D51" t="s" s="34">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E51" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F51" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F51" s="36">
+        <v>45021</v>
+      </c>
       <c r="G51" t="s" s="34">
         <v>17</v>
       </c>
@@ -9342,23 +9316,25 @@
       </c>
       <c r="J51" s="38"/>
     </row>
-    <row r="52" ht="121.65" customHeight="1">
+    <row r="52" ht="117.95" customHeight="1">
       <c r="A52" s="33">
         <v>50</v>
       </c>
       <c r="B52" t="s" s="34">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s" s="34">
+        <v>241</v>
+      </c>
+      <c r="D52" t="s" s="34">
         <v>238</v>
       </c>
-      <c r="D52" t="s" s="34">
-        <v>239</v>
-      </c>
       <c r="E52" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F52" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F52" s="36">
+        <v>45021</v>
+      </c>
       <c r="G52" t="s" s="34">
         <v>17</v>
       </c>
@@ -9368,23 +9344,25 @@
       </c>
       <c r="J52" s="38"/>
     </row>
-    <row r="53" ht="121.65" customHeight="1">
+    <row r="53" ht="218" customHeight="1">
       <c r="A53" s="33">
         <v>51</v>
       </c>
       <c r="B53" t="s" s="34">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s" s="34">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D53" t="s" s="34">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E53" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F53" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F53" s="36">
+        <v>45021</v>
+      </c>
       <c r="G53" t="s" s="34">
         <v>17</v>
       </c>
@@ -9394,23 +9372,25 @@
       </c>
       <c r="J53" s="38"/>
     </row>
-    <row r="54" ht="121.65" customHeight="1">
+    <row r="54" ht="204.4" customHeight="1">
       <c r="A54" s="33">
         <v>52</v>
       </c>
       <c r="B54" t="s" s="34">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s" s="34">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D54" t="s" s="34">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E54" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F54" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F54" s="36">
+        <v>45021</v>
+      </c>
       <c r="G54" t="s" s="34">
         <v>17</v>
       </c>
@@ -9420,23 +9400,25 @@
       </c>
       <c r="J54" s="38"/>
     </row>
-    <row r="55" ht="121.65" customHeight="1">
+    <row r="55" ht="226.65" customHeight="1">
       <c r="A55" s="33">
         <v>53</v>
       </c>
       <c r="B55" t="s" s="34">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s" s="34">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D55" t="s" s="34">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E55" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F55" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F55" s="36">
+        <v>45021</v>
+      </c>
       <c r="G55" t="s" s="34">
         <v>17</v>
       </c>
@@ -9446,23 +9428,25 @@
       </c>
       <c r="J55" s="38"/>
     </row>
-    <row r="56" ht="122" customHeight="1">
+    <row r="56" ht="218" customHeight="1">
       <c r="A56" s="33">
         <v>54</v>
       </c>
       <c r="B56" t="s" s="34">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s" s="34">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D56" t="s" s="34">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F56" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F56" s="36">
+        <v>45021</v>
+      </c>
       <c r="G56" t="s" s="34">
         <v>17</v>
       </c>
@@ -9472,23 +9456,25 @@
       </c>
       <c r="J56" s="38"/>
     </row>
-    <row r="57" ht="104.4" customHeight="1">
+    <row r="57" ht="220.85" customHeight="1">
       <c r="A57" s="33">
         <v>55</v>
       </c>
       <c r="B57" t="s" s="34">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s" s="34">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D57" t="s" s="34">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E57" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F57" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F57" s="36">
+        <v>45021</v>
+      </c>
       <c r="G57" t="s" s="34">
         <v>17</v>
       </c>
@@ -9498,21 +9484,25 @@
       </c>
       <c r="J57" s="38"/>
     </row>
-    <row r="58" ht="127.25" customHeight="1">
-      <c r="A58" s="46"/>
+    <row r="58" ht="220.85" customHeight="1">
+      <c r="A58" s="33">
+        <v>56</v>
+      </c>
       <c r="B58" t="s" s="34">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s" s="34">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D58" t="s" s="34">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E58" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F58" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F58" s="36">
+        <v>45021</v>
+      </c>
       <c r="G58" t="s" s="34">
         <v>17</v>
       </c>
@@ -9522,21 +9512,25 @@
       </c>
       <c r="J58" s="38"/>
     </row>
-    <row r="59" ht="117.95" customHeight="1">
-      <c r="A59" s="46"/>
+    <row r="59" ht="220.85" customHeight="1">
+      <c r="A59" s="33">
+        <v>57</v>
+      </c>
       <c r="B59" t="s" s="34">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s" s="34">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D59" t="s" s="34">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E59" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F59" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F59" s="36">
+        <v>45021</v>
+      </c>
       <c r="G59" t="s" s="34">
         <v>17</v>
       </c>
@@ -9546,21 +9540,25 @@
       </c>
       <c r="J59" s="38"/>
     </row>
-    <row r="60" ht="117.95" customHeight="1">
-      <c r="A60" s="46"/>
+    <row r="60" ht="220.85" customHeight="1">
+      <c r="A60" s="33">
+        <v>58</v>
+      </c>
       <c r="B60" t="s" s="34">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s" s="34">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D60" t="s" s="34">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E60" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F60" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F60" s="36">
+        <v>45021</v>
+      </c>
       <c r="G60" t="s" s="34">
         <v>17</v>
       </c>
@@ -9570,21 +9568,25 @@
       </c>
       <c r="J60" s="38"/>
     </row>
-    <row r="61" ht="117.95" customHeight="1">
-      <c r="A61" s="46"/>
+    <row r="61" ht="216.8" customHeight="1">
+      <c r="A61" s="33">
+        <v>59</v>
+      </c>
       <c r="B61" t="s" s="34">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s" s="34">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D61" t="s" s="34">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E61" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F61" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F61" s="36">
+        <v>45021</v>
+      </c>
       <c r="G61" t="s" s="34">
         <v>17</v>
       </c>
@@ -9594,23 +9596,25 @@
       </c>
       <c r="J61" s="38"/>
     </row>
-    <row r="62" ht="218" customHeight="1">
+    <row r="62" ht="216.8" customHeight="1">
       <c r="A62" s="33">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s" s="34">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s" s="34">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D62" t="s" s="34">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E62" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F62" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F62" s="36">
+        <v>45021</v>
+      </c>
       <c r="G62" t="s" s="34">
         <v>17</v>
       </c>
@@ -9620,23 +9624,25 @@
       </c>
       <c r="J62" s="38"/>
     </row>
-    <row r="63" ht="204.4" customHeight="1">
+    <row r="63" ht="212.5" customHeight="1">
       <c r="A63" s="33">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s" s="34">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s" s="34">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D63" t="s" s="34">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E63" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F63" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F63" s="36">
+        <v>45021</v>
+      </c>
       <c r="G63" t="s" s="34">
         <v>17</v>
       </c>
@@ -9646,23 +9652,25 @@
       </c>
       <c r="J63" s="38"/>
     </row>
-    <row r="64" ht="140.15" customHeight="1">
+    <row r="64" ht="188.65" customHeight="1">
       <c r="A64" s="33">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s" s="34">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C64" t="s" s="34">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D64" t="s" s="34">
-        <v>156</v>
+        <v>264</v>
       </c>
       <c r="E64" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F64" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F64" s="36">
+        <v>45021</v>
+      </c>
       <c r="G64" t="s" s="34">
         <v>17</v>
       </c>
@@ -9672,23 +9680,25 @@
       </c>
       <c r="J64" s="38"/>
     </row>
-    <row r="65" ht="226.65" customHeight="1">
+    <row r="65" ht="193.1" customHeight="1">
       <c r="A65" s="33">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s" s="34">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C65" t="s" s="34">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D65" t="s" s="34">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E65" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F65" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F65" s="36">
+        <v>45021</v>
+      </c>
       <c r="G65" t="s" s="34">
         <v>17</v>
       </c>
@@ -9698,23 +9708,25 @@
       </c>
       <c r="J65" s="38"/>
     </row>
-    <row r="66" ht="218" customHeight="1">
+    <row r="66" ht="229.15" customHeight="1">
       <c r="A66" s="33">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s" s="34">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s" s="34">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D66" t="s" s="34">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E66" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F66" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F66" s="36">
+        <v>45021</v>
+      </c>
       <c r="G66" t="s" s="34">
         <v>17</v>
       </c>
@@ -9724,23 +9736,25 @@
       </c>
       <c r="J66" s="38"/>
     </row>
-    <row r="67" ht="220.85" customHeight="1">
+    <row r="67" ht="207.75" customHeight="1">
       <c r="A67" s="33">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s" s="34">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s" s="34">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D67" t="s" s="34">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E67" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F67" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F67" s="36">
+        <v>45021</v>
+      </c>
       <c r="G67" t="s" s="34">
         <v>17</v>
       </c>
@@ -9750,23 +9764,25 @@
       </c>
       <c r="J67" s="38"/>
     </row>
-    <row r="68" ht="220.85" customHeight="1">
+    <row r="68" ht="240" customHeight="1">
       <c r="A68" s="33">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s" s="34">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s" s="34">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D68" t="s" s="34">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E68" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F68" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F68" s="36">
+        <v>45021</v>
+      </c>
       <c r="G68" t="s" s="34">
         <v>17</v>
       </c>
@@ -9776,23 +9792,25 @@
       </c>
       <c r="J68" s="38"/>
     </row>
-    <row r="69" ht="220.85" customHeight="1">
+    <row r="69" ht="209.3" customHeight="1">
       <c r="A69" s="33">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s" s="34">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s" s="34">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D69" t="s" s="34">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E69" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F69" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F69" s="36">
+        <v>45021</v>
+      </c>
       <c r="G69" t="s" s="34">
         <v>17</v>
       </c>
@@ -9802,23 +9820,25 @@
       </c>
       <c r="J69" s="38"/>
     </row>
-    <row r="70" ht="220.85" customHeight="1">
+    <row r="70" ht="255" customHeight="1">
       <c r="A70" s="33">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s" s="34">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C70" t="s" s="34">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D70" t="s" s="34">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="E70" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F70" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F70" s="36">
+        <v>45021</v>
+      </c>
       <c r="G70" t="s" s="34">
         <v>17</v>
       </c>
@@ -9828,23 +9848,25 @@
       </c>
       <c r="J70" s="38"/>
     </row>
-    <row r="71" ht="216.8" customHeight="1">
+    <row r="71" ht="255" customHeight="1">
       <c r="A71" s="33">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s" s="34">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s" s="34">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s" s="34">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E71" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F71" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F71" s="36">
+        <v>45021</v>
+      </c>
       <c r="G71" t="s" s="34">
         <v>17</v>
       </c>
@@ -9854,23 +9876,25 @@
       </c>
       <c r="J71" s="38"/>
     </row>
-    <row r="72" ht="216.8" customHeight="1">
+    <row r="72" ht="238" customHeight="1">
       <c r="A72" s="33">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s" s="34">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C72" t="s" s="34">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D72" t="s" s="34">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E72" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F72" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F72" s="36">
+        <v>45021</v>
+      </c>
       <c r="G72" t="s" s="34">
         <v>17</v>
       </c>
@@ -9880,23 +9904,25 @@
       </c>
       <c r="J72" s="38"/>
     </row>
-    <row r="73" ht="212.5" customHeight="1">
+    <row r="73" ht="238" customHeight="1">
       <c r="A73" s="33">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s" s="34">
         <v>97</v>
       </c>
       <c r="C73" t="s" s="34">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D73" t="s" s="34">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E73" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F73" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F73" s="36">
+        <v>45021</v>
+      </c>
       <c r="G73" t="s" s="34">
         <v>17</v>
       </c>
@@ -9906,23 +9932,25 @@
       </c>
       <c r="J73" s="38"/>
     </row>
-    <row r="74" ht="188.65" customHeight="1">
+    <row r="74" ht="255" customHeight="1">
       <c r="A74" s="33">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s" s="34">
         <v>97</v>
       </c>
       <c r="C74" t="s" s="34">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D74" t="s" s="34">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E74" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F74" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F74" s="36">
+        <v>45021</v>
+      </c>
       <c r="G74" t="s" s="34">
         <v>17</v>
       </c>
@@ -9932,23 +9960,25 @@
       </c>
       <c r="J74" s="38"/>
     </row>
-    <row r="75" ht="193.1" customHeight="1">
+    <row r="75" ht="289" customHeight="1">
       <c r="A75" s="33">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s" s="34">
         <v>97</v>
       </c>
       <c r="C75" t="s" s="34">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="D75" t="s" s="34">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="E75" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F75" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F75" s="36">
+        <v>45021</v>
+      </c>
       <c r="G75" t="s" s="34">
         <v>17</v>
       </c>
@@ -9958,49 +9988,53 @@
       </c>
       <c r="J75" s="38"/>
     </row>
-    <row r="76" ht="229.15" customHeight="1">
+    <row r="76" ht="255" customHeight="1">
       <c r="A76" s="33">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s" s="34">
         <v>97</v>
       </c>
       <c r="C76" t="s" s="34">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D76" t="s" s="34">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E76" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F76" s="37"/>
+        <v>192</v>
+      </c>
+      <c r="F76" s="36">
+        <v>45021</v>
+      </c>
       <c r="G76" t="s" s="34">
         <v>17</v>
       </c>
-      <c r="H76" s="37"/>
+      <c r="H76" t="s" s="34">
+        <v>289</v>
+      </c>
       <c r="I76" t="s" s="34">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="J76" s="38"/>
     </row>
-    <row r="77" ht="207.75" customHeight="1">
+    <row r="77" ht="139.8" customHeight="1">
       <c r="A77" s="33">
-        <v>71</v>
-      </c>
-      <c r="B77" t="s" s="34">
-        <v>97</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B77" s="37"/>
       <c r="C77" t="s" s="34">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D77" t="s" s="34">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="E77" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F77" s="37"/>
+        <v>192</v>
+      </c>
+      <c r="F77" s="36">
+        <v>45021</v>
+      </c>
       <c r="G77" t="s" s="34">
         <v>17</v>
       </c>
@@ -10010,23 +10044,23 @@
       </c>
       <c r="J77" s="38"/>
     </row>
-    <row r="78" ht="240" customHeight="1">
+    <row r="78" ht="139.8" customHeight="1">
       <c r="A78" s="33">
-        <v>72</v>
-      </c>
-      <c r="B78" t="s" s="34">
-        <v>97</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B78" s="37"/>
       <c r="C78" t="s" s="34">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="D78" t="s" s="34">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="E78" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F78" s="37"/>
+        <v>192</v>
+      </c>
+      <c r="F78" s="36">
+        <v>45021</v>
+      </c>
       <c r="G78" t="s" s="34">
         <v>17</v>
       </c>
@@ -10036,23 +10070,23 @@
       </c>
       <c r="J78" s="38"/>
     </row>
-    <row r="79" ht="209.3" customHeight="1">
+    <row r="79" ht="139.8" customHeight="1">
       <c r="A79" s="33">
-        <v>73</v>
-      </c>
-      <c r="B79" t="s" s="34">
-        <v>97</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B79" s="37"/>
       <c r="C79" t="s" s="34">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D79" t="s" s="34">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="E79" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F79" s="37"/>
+        <v>192</v>
+      </c>
+      <c r="F79" s="36">
+        <v>45021</v>
+      </c>
       <c r="G79" t="s" s="34">
         <v>17</v>
       </c>
@@ -10062,23 +10096,23 @@
       </c>
       <c r="J79" s="38"/>
     </row>
-    <row r="80" ht="255" customHeight="1">
+    <row r="80" ht="139.8" customHeight="1">
       <c r="A80" s="33">
-        <v>74</v>
-      </c>
-      <c r="B80" t="s" s="34">
-        <v>97</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B80" s="37"/>
       <c r="C80" t="s" s="34">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D80" t="s" s="34">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="E80" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F80" s="37"/>
+        <v>192</v>
+      </c>
+      <c r="F80" s="36">
+        <v>45021</v>
+      </c>
       <c r="G80" t="s" s="34">
         <v>17</v>
       </c>
@@ -10088,23 +10122,25 @@
       </c>
       <c r="J80" s="38"/>
     </row>
-    <row r="81" ht="255" customHeight="1">
+    <row r="81" ht="148.7" customHeight="1">
       <c r="A81" s="33">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s" s="34">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s" s="34">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D81" t="s" s="34">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E81" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F81" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F81" s="36">
+        <v>45021</v>
+      </c>
       <c r="G81" t="s" s="34">
         <v>17</v>
       </c>
@@ -10114,23 +10150,25 @@
       </c>
       <c r="J81" s="38"/>
     </row>
-    <row r="82" ht="238" customHeight="1">
+    <row r="82" ht="148.7" customHeight="1">
       <c r="A82" s="33">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s" s="34">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s" s="34">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D82" t="s" s="34">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E82" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F82" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F82" s="36">
+        <v>45021</v>
+      </c>
       <c r="G82" t="s" s="34">
         <v>17</v>
       </c>
@@ -10140,23 +10178,25 @@
       </c>
       <c r="J82" s="38"/>
     </row>
-    <row r="83" ht="238" customHeight="1">
+    <row r="83" ht="151.15" customHeight="1">
       <c r="A83" s="33">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s" s="34">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C83" t="s" s="34">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D83" t="s" s="34">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E83" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F83" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F83" s="36">
+        <v>45021</v>
+      </c>
       <c r="G83" t="s" s="34">
         <v>17</v>
       </c>
@@ -10166,23 +10206,25 @@
       </c>
       <c r="J83" s="38"/>
     </row>
-    <row r="84" ht="255" customHeight="1">
+    <row r="84" ht="112.15" customHeight="1">
       <c r="A84" s="33">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s" s="34">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s" s="34">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D84" t="s" s="34">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E84" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F84" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F84" s="36">
+        <v>45021</v>
+      </c>
       <c r="G84" t="s" s="34">
         <v>17</v>
       </c>
@@ -10192,23 +10234,25 @@
       </c>
       <c r="J84" s="38"/>
     </row>
-    <row r="85" ht="289" customHeight="1">
+    <row r="85" ht="107.75" customHeight="1">
       <c r="A85" s="33">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s" s="34">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s" s="34">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D85" t="s" s="34">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E85" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F85" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F85" s="36">
+        <v>45021</v>
+      </c>
       <c r="G85" t="s" s="34">
         <v>17</v>
       </c>
@@ -10218,23 +10262,25 @@
       </c>
       <c r="J85" s="38"/>
     </row>
-    <row r="86" ht="255" customHeight="1">
+    <row r="86" ht="208.95" customHeight="1">
       <c r="A86" s="33">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s" s="34">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s" s="34">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D86" t="s" s="34">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E86" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F86" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F86" s="36">
+        <v>45021</v>
+      </c>
       <c r="G86" t="s" s="34">
         <v>17</v>
       </c>
@@ -10244,19 +10290,25 @@
       </c>
       <c r="J86" s="38"/>
     </row>
-    <row r="87" ht="139.8" customHeight="1">
-      <c r="A87" s="46"/>
-      <c r="B87" s="37"/>
+    <row r="87" ht="208.95" customHeight="1">
+      <c r="A87" s="33">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s" s="34">
+        <v>117</v>
+      </c>
       <c r="C87" t="s" s="34">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D87" t="s" s="34">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="E87" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F87" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F87" s="36">
+        <v>45021</v>
+      </c>
       <c r="G87" t="s" s="34">
         <v>17</v>
       </c>
@@ -10266,19 +10318,25 @@
       </c>
       <c r="J87" s="38"/>
     </row>
-    <row r="88" ht="139.8" customHeight="1">
-      <c r="A88" s="46"/>
-      <c r="B88" s="37"/>
+    <row r="88" ht="207" customHeight="1">
+      <c r="A88" s="33">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s" s="34">
+        <v>117</v>
+      </c>
       <c r="C88" t="s" s="34">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D88" t="s" s="34">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="E88" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F88" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F88" s="36">
+        <v>45021</v>
+      </c>
       <c r="G88" t="s" s="34">
         <v>17</v>
       </c>
@@ -10288,19 +10346,25 @@
       </c>
       <c r="J88" s="38"/>
     </row>
-    <row r="89" ht="139.8" customHeight="1">
-      <c r="A89" s="46"/>
-      <c r="B89" s="37"/>
+    <row r="89" ht="124.2" customHeight="1">
+      <c r="A89" s="33">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s" s="34">
+        <v>126</v>
+      </c>
       <c r="C89" t="s" s="34">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D89" t="s" s="34">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="E89" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F89" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F89" s="36">
+        <v>45021</v>
+      </c>
       <c r="G89" t="s" s="34">
         <v>17</v>
       </c>
@@ -10310,19 +10374,25 @@
       </c>
       <c r="J89" s="38"/>
     </row>
-    <row r="90" ht="139.8" customHeight="1">
-      <c r="A90" s="46"/>
-      <c r="B90" s="37"/>
+    <row r="90" ht="202.9" customHeight="1">
+      <c r="A90" s="33">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s" s="34">
+        <v>126</v>
+      </c>
       <c r="C90" t="s" s="34">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D90" t="s" s="34">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="E90" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F90" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F90" s="36">
+        <v>45021</v>
+      </c>
       <c r="G90" t="s" s="34">
         <v>17</v>
       </c>
@@ -10332,23 +10402,25 @@
       </c>
       <c r="J90" s="38"/>
     </row>
-    <row r="91" ht="108" customHeight="1">
+    <row r="91" ht="202.9" customHeight="1">
       <c r="A91" s="33">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s" s="34">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C91" t="s" s="34">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D91" t="s" s="34">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="E91" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F91" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F91" s="36">
+        <v>45021</v>
+      </c>
       <c r="G91" t="s" s="34">
         <v>17</v>
       </c>
@@ -10358,23 +10430,25 @@
       </c>
       <c r="J91" s="38"/>
     </row>
-    <row r="92" ht="148.7" customHeight="1">
+    <row r="92" ht="202.9" customHeight="1">
       <c r="A92" s="33">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s" s="34">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C92" t="s" s="34">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D92" t="s" s="34">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E92" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F92" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F92" s="36">
+        <v>45021</v>
+      </c>
       <c r="G92" t="s" s="34">
         <v>17</v>
       </c>
@@ -10384,21 +10458,25 @@
       </c>
       <c r="J92" s="38"/>
     </row>
-    <row r="93" ht="148.7" customHeight="1">
-      <c r="A93" s="46"/>
+    <row r="93" ht="190.35" customHeight="1">
+      <c r="A93" s="33">
+        <v>91</v>
+      </c>
       <c r="B93" t="s" s="34">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C93" t="s" s="34">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D93" t="s" s="34">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E93" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F93" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F93" s="36">
+        <v>45021</v>
+      </c>
       <c r="G93" t="s" s="34">
         <v>17</v>
       </c>
@@ -10408,23 +10486,25 @@
       </c>
       <c r="J93" s="38"/>
     </row>
-    <row r="94" ht="151.15" customHeight="1">
+    <row r="94" ht="190.35" customHeight="1">
       <c r="A94" s="33">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s" s="34">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C94" t="s" s="34">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D94" t="s" s="34">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E94" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F94" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F94" s="36">
+        <v>45021</v>
+      </c>
       <c r="G94" t="s" s="34">
         <v>17</v>
       </c>
@@ -10434,23 +10514,25 @@
       </c>
       <c r="J94" s="38"/>
     </row>
-    <row r="95" ht="151.15" customHeight="1">
+    <row r="95" ht="276" customHeight="1">
       <c r="A95" s="33">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s" s="34">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C95" t="s" s="34">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D95" t="s" s="34">
-        <v>156</v>
+        <v>319</v>
       </c>
       <c r="E95" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F95" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F95" s="36">
+        <v>45021</v>
+      </c>
       <c r="G95" t="s" s="34">
         <v>17</v>
       </c>
@@ -10460,23 +10542,25 @@
       </c>
       <c r="J95" s="38"/>
     </row>
-    <row r="96" ht="151.15" customHeight="1">
+    <row r="96" ht="126.9" customHeight="1">
       <c r="A96" s="33">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s" s="34">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s" s="34">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D96" t="s" s="34">
-        <v>156</v>
+        <v>321</v>
       </c>
       <c r="E96" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F96" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F96" s="36">
+        <v>45021</v>
+      </c>
       <c r="G96" t="s" s="34">
         <v>17</v>
       </c>
@@ -10486,23 +10570,25 @@
       </c>
       <c r="J96" s="38"/>
     </row>
-    <row r="97" ht="112.15" customHeight="1">
+    <row r="97" ht="127.45" customHeight="1">
       <c r="A97" s="33">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s" s="34">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C97" t="s" s="34">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D97" t="s" s="34">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="E97" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F97" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F97" s="36">
+        <v>45021</v>
+      </c>
       <c r="G97" t="s" s="34">
         <v>17</v>
       </c>
@@ -10512,23 +10598,25 @@
       </c>
       <c r="J97" s="38"/>
     </row>
-    <row r="98" ht="107.75" customHeight="1">
+    <row r="98" ht="129.35" customHeight="1">
       <c r="A98" s="33">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s" s="34">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C98" t="s" s="34">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D98" t="s" s="34">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E98" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F98" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F98" s="36">
+        <v>45021</v>
+      </c>
       <c r="G98" t="s" s="34">
         <v>17</v>
       </c>
@@ -10538,23 +10626,25 @@
       </c>
       <c r="J98" s="38"/>
     </row>
-    <row r="99" ht="208.95" customHeight="1">
+    <row r="99" ht="129.35" customHeight="1">
       <c r="A99" s="33">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s" s="34">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C99" t="s" s="34">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D99" t="s" s="34">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E99" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F99" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F99" s="36">
+        <v>45021</v>
+      </c>
       <c r="G99" t="s" s="34">
         <v>17</v>
       </c>
@@ -10564,23 +10654,25 @@
       </c>
       <c r="J99" s="38"/>
     </row>
-    <row r="100" ht="208.95" customHeight="1">
+    <row r="100" ht="129.35" customHeight="1">
       <c r="A100" s="33">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s" s="34">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C100" t="s" s="34">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D100" t="s" s="34">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E100" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F100" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F100" s="36">
+        <v>45021</v>
+      </c>
       <c r="G100" t="s" s="34">
         <v>17</v>
       </c>
@@ -10590,23 +10682,25 @@
       </c>
       <c r="J100" s="38"/>
     </row>
-    <row r="101" ht="207" customHeight="1">
+    <row r="101" ht="278" customHeight="1">
       <c r="A101" s="33">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s" s="34">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C101" t="s" s="34">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D101" t="s" s="34">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E101" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F101" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F101" s="36">
+        <v>45021</v>
+      </c>
       <c r="G101" t="s" s="34">
         <v>17</v>
       </c>
@@ -10616,23 +10710,25 @@
       </c>
       <c r="J101" s="38"/>
     </row>
-    <row r="102" ht="174.85" customHeight="1">
+    <row r="102" ht="156.6" customHeight="1">
       <c r="A102" s="33">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s" s="34">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C102" t="s" s="34">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="D102" t="s" s="34">
-        <v>156</v>
+        <v>332</v>
       </c>
       <c r="E102" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F102" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F102" s="36">
+        <v>45021</v>
+      </c>
       <c r="G102" t="s" s="34">
         <v>17</v>
       </c>
@@ -10642,471 +10738,29 @@
       </c>
       <c r="J102" s="38"/>
     </row>
-    <row r="103" ht="124.2" customHeight="1">
-      <c r="A103" s="33">
-        <v>92</v>
-      </c>
-      <c r="B103" t="s" s="34">
-        <v>126</v>
-      </c>
-      <c r="C103" t="s" s="34">
-        <v>324</v>
-      </c>
-      <c r="D103" t="s" s="34">
-        <v>325</v>
-      </c>
-      <c r="E103" t="s" s="35">
-        <v>152</v>
-      </c>
+    <row r="103" ht="123.3" customHeight="1">
+      <c r="A103" s="37"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="35"/>
       <c r="F103" s="37"/>
-      <c r="G103" t="s" s="34">
-        <v>17</v>
-      </c>
+      <c r="G103" s="37"/>
       <c r="H103" s="37"/>
       <c r="I103" t="s" s="34">
         <v>34</v>
       </c>
-      <c r="J103" s="38"/>
-    </row>
-    <row r="104" ht="202.9" customHeight="1">
-      <c r="A104" s="33">
-        <v>93</v>
-      </c>
-      <c r="B104" t="s" s="34">
-        <v>126</v>
-      </c>
-      <c r="C104" t="s" s="34">
-        <v>326</v>
-      </c>
-      <c r="D104" t="s" s="34">
-        <v>327</v>
-      </c>
-      <c r="E104" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F104" s="37"/>
-      <c r="G104" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H104" s="37"/>
-      <c r="I104" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J104" s="38"/>
-    </row>
-    <row r="105" ht="202.9" customHeight="1">
-      <c r="A105" s="33">
-        <v>94</v>
-      </c>
-      <c r="B105" t="s" s="34">
-        <v>126</v>
-      </c>
-      <c r="C105" t="s" s="34">
-        <v>328</v>
-      </c>
-      <c r="D105" t="s" s="34">
-        <v>327</v>
-      </c>
-      <c r="E105" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F105" s="37"/>
-      <c r="G105" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H105" s="37"/>
-      <c r="I105" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J105" s="38"/>
-    </row>
-    <row r="106" ht="202.9" customHeight="1">
-      <c r="A106" s="33">
-        <v>95</v>
-      </c>
-      <c r="B106" t="s" s="34">
-        <v>126</v>
-      </c>
-      <c r="C106" t="s" s="34">
-        <v>329</v>
-      </c>
-      <c r="D106" t="s" s="34">
-        <v>330</v>
-      </c>
-      <c r="E106" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F106" s="37"/>
-      <c r="G106" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H106" s="37"/>
-      <c r="I106" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J106" s="38"/>
-    </row>
-    <row r="107" ht="190.35" customHeight="1">
-      <c r="A107" s="33">
-        <v>96</v>
-      </c>
-      <c r="B107" t="s" s="34">
-        <v>126</v>
-      </c>
-      <c r="C107" t="s" s="34">
-        <v>331</v>
-      </c>
-      <c r="D107" t="s" s="34">
-        <v>316</v>
-      </c>
-      <c r="E107" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F107" s="37"/>
-      <c r="G107" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H107" s="37"/>
-      <c r="I107" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J107" s="38"/>
-    </row>
-    <row r="108" ht="190.35" customHeight="1">
-      <c r="A108" s="33">
-        <v>97</v>
-      </c>
-      <c r="B108" t="s" s="34">
-        <v>126</v>
-      </c>
-      <c r="C108" t="s" s="34">
-        <v>332</v>
-      </c>
-      <c r="D108" t="s" s="34">
-        <v>320</v>
-      </c>
-      <c r="E108" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F108" s="37"/>
-      <c r="G108" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H108" s="37"/>
-      <c r="I108" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J108" s="38"/>
-    </row>
-    <row r="109" ht="276" customHeight="1">
-      <c r="A109" s="33">
-        <v>98</v>
-      </c>
-      <c r="B109" t="s" s="34">
-        <v>126</v>
-      </c>
-      <c r="C109" t="s" s="34">
-        <v>333</v>
-      </c>
-      <c r="D109" t="s" s="34">
-        <v>334</v>
-      </c>
-      <c r="E109" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F109" s="37"/>
-      <c r="G109" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H109" s="37"/>
-      <c r="I109" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J109" s="38"/>
-    </row>
-    <row r="110" ht="174.6" customHeight="1">
-      <c r="A110" s="33">
-        <v>99</v>
-      </c>
-      <c r="B110" t="s" s="34">
-        <v>126</v>
-      </c>
-      <c r="C110" t="s" s="34">
-        <v>335</v>
-      </c>
-      <c r="D110" t="s" s="34">
-        <v>156</v>
-      </c>
-      <c r="E110" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F110" s="37"/>
-      <c r="G110" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H110" s="37"/>
-      <c r="I110" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J110" s="38"/>
-    </row>
-    <row r="111" ht="126.9" customHeight="1">
-      <c r="A111" s="33">
-        <v>100</v>
-      </c>
-      <c r="B111" t="s" s="34">
-        <v>135</v>
-      </c>
-      <c r="C111" t="s" s="34">
-        <v>336</v>
-      </c>
-      <c r="D111" t="s" s="34">
-        <v>337</v>
-      </c>
-      <c r="E111" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F111" s="37"/>
-      <c r="G111" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H111" s="37"/>
-      <c r="I111" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J111" s="38"/>
-    </row>
-    <row r="112" ht="127.45" customHeight="1">
-      <c r="A112" s="33">
-        <v>101</v>
-      </c>
-      <c r="B112" t="s" s="34">
-        <v>135</v>
-      </c>
-      <c r="C112" t="s" s="34">
-        <v>338</v>
-      </c>
-      <c r="D112" t="s" s="34">
-        <v>339</v>
-      </c>
-      <c r="E112" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F112" s="37"/>
-      <c r="G112" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H112" s="37"/>
-      <c r="I112" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J112" s="38"/>
-    </row>
-    <row r="113" ht="129.35" customHeight="1">
-      <c r="A113" s="33">
-        <v>102</v>
-      </c>
-      <c r="B113" t="s" s="34">
-        <v>135</v>
-      </c>
-      <c r="C113" t="s" s="34">
-        <v>340</v>
-      </c>
-      <c r="D113" t="s" s="34">
-        <v>318</v>
-      </c>
-      <c r="E113" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F113" s="37"/>
-      <c r="G113" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H113" s="37"/>
-      <c r="I113" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J113" s="38"/>
-    </row>
-    <row r="114" ht="129.35" customHeight="1">
-      <c r="A114" s="33">
-        <v>103</v>
-      </c>
-      <c r="B114" t="s" s="34">
-        <v>135</v>
-      </c>
-      <c r="C114" t="s" s="34">
-        <v>341</v>
-      </c>
-      <c r="D114" t="s" s="34">
-        <v>342</v>
-      </c>
-      <c r="E114" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F114" s="37"/>
-      <c r="G114" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H114" s="37"/>
-      <c r="I114" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J114" s="38"/>
-    </row>
-    <row r="115" ht="129.35" customHeight="1">
-      <c r="A115" s="33">
-        <v>104</v>
-      </c>
-      <c r="B115" t="s" s="34">
-        <v>135</v>
-      </c>
-      <c r="C115" t="s" s="34">
-        <v>343</v>
-      </c>
-      <c r="D115" t="s" s="34">
-        <v>344</v>
-      </c>
-      <c r="E115" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F115" s="37"/>
-      <c r="G115" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H115" s="37"/>
-      <c r="I115" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J115" s="38"/>
-    </row>
-    <row r="116" ht="278" customHeight="1">
-      <c r="A116" s="33">
-        <v>105</v>
-      </c>
-      <c r="B116" t="s" s="34">
-        <v>135</v>
-      </c>
-      <c r="C116" t="s" s="34">
-        <v>345</v>
-      </c>
-      <c r="D116" t="s" s="34">
-        <v>346</v>
-      </c>
-      <c r="E116" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F116" s="37"/>
-      <c r="G116" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H116" s="37"/>
-      <c r="I116" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J116" s="38"/>
-    </row>
-    <row r="117" ht="177.3" customHeight="1">
-      <c r="A117" s="33">
-        <v>106</v>
-      </c>
-      <c r="B117" t="s" s="34">
-        <v>135</v>
-      </c>
-      <c r="C117" t="s" s="34">
-        <v>347</v>
-      </c>
-      <c r="D117" t="s" s="34">
-        <v>156</v>
-      </c>
-      <c r="E117" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F117" s="37"/>
-      <c r="G117" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H117" s="37"/>
-      <c r="I117" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J117" s="38"/>
-    </row>
-    <row r="118" ht="156.6" customHeight="1">
-      <c r="A118" s="33">
-        <v>107</v>
-      </c>
-      <c r="B118" t="s" s="34">
-        <v>142</v>
-      </c>
-      <c r="C118" t="s" s="34">
-        <v>348</v>
-      </c>
-      <c r="D118" t="s" s="34">
-        <v>349</v>
-      </c>
-      <c r="E118" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="F118" s="37"/>
-      <c r="G118" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="H118" s="37"/>
-      <c r="I118" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J118" s="38"/>
-    </row>
-    <row r="119" ht="173.05" customHeight="1">
-      <c r="A119" s="39">
-        <v>108</v>
-      </c>
-      <c r="B119" t="s" s="40">
-        <v>142</v>
-      </c>
-      <c r="C119" t="s" s="40">
-        <v>350</v>
-      </c>
-      <c r="D119" t="s" s="40">
-        <v>156</v>
-      </c>
-      <c r="E119" t="s" s="41">
-        <v>152</v>
-      </c>
-      <c r="F119" s="43"/>
-      <c r="G119" t="s" s="40">
-        <v>17</v>
-      </c>
-      <c r="H119" s="43"/>
-      <c r="I119" t="s" s="40">
-        <v>34</v>
-      </c>
-      <c r="J119" s="44"/>
-    </row>
-    <row r="120" ht="123.3" customHeight="1">
-      <c r="A120" s="31"/>
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" t="s" s="28">
-        <v>34</v>
-      </c>
-      <c r="J120" s="31"/>
+      <c r="J103" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E119">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E102">
       <formula1>"○,×,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I120">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I103">
       <formula1>"必須,不要,保留,   -"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11131,15 +10785,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.6016" style="47" customWidth="1"/>
-    <col min="2" max="2" width="24.8125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="44.0859" style="47" customWidth="1"/>
-    <col min="4" max="4" width="64.375" style="47" customWidth="1"/>
-    <col min="5" max="5" width="9" style="47" customWidth="1"/>
-    <col min="6" max="7" width="19.6016" style="47" customWidth="1"/>
-    <col min="8" max="8" width="38.0859" style="47" customWidth="1"/>
-    <col min="9" max="10" width="28.4219" style="47" customWidth="1"/>
-    <col min="11" max="16384" width="19.6016" style="47" customWidth="1"/>
+    <col min="1" max="1" width="19.6016" style="46" customWidth="1"/>
+    <col min="2" max="2" width="24.8125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="44.0859" style="46" customWidth="1"/>
+    <col min="4" max="4" width="64.375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="9" style="46" customWidth="1"/>
+    <col min="6" max="7" width="19.6016" style="46" customWidth="1"/>
+    <col min="8" max="8" width="38.0859" style="46" customWidth="1"/>
+    <col min="9" max="10" width="28.4219" style="46" customWidth="1"/>
+    <col min="11" max="16384" width="19.6016" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
@@ -11154,7 +10808,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="21"/>
-      <c r="J1" s="48"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" ht="20.45" customHeight="1">
       <c r="A2" t="s" s="23">
@@ -11196,13 +10850,13 @@
         <v>30</v>
       </c>
       <c r="C3" t="s" s="28">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="D3" t="s" s="28">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E3" t="s" s="29">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" t="s" s="28">
@@ -11215,18 +10869,18 @@
       <c r="J3" s="32"/>
     </row>
     <row r="4" ht="175.3" customHeight="1">
-      <c r="A4" s="46"/>
+      <c r="A4" s="48"/>
       <c r="B4" t="s" s="34">
         <v>30</v>
       </c>
       <c r="C4" t="s" s="34">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="D4" t="s" s="34">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E4" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" t="s" s="34">
@@ -11239,18 +10893,18 @@
       <c r="J4" s="38"/>
     </row>
     <row r="5" ht="157.05" customHeight="1">
-      <c r="A5" s="46"/>
+      <c r="A5" s="48"/>
       <c r="B5" t="s" s="34">
         <v>30</v>
       </c>
       <c r="C5" t="s" s="34">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="D5" t="s" s="34">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E5" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" t="s" s="34">
@@ -11263,18 +10917,18 @@
       <c r="J5" s="38"/>
     </row>
     <row r="6" ht="157.05" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="48"/>
       <c r="B6" t="s" s="34">
         <v>48</v>
       </c>
       <c r="C6" t="s" s="34">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="D6" t="s" s="34">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="E6" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" t="s" s="34">
@@ -11294,13 +10948,13 @@
         <v>58</v>
       </c>
       <c r="C7" t="s" s="34">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="D7" t="s" s="34">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="E7" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" t="s" s="34">
@@ -11320,13 +10974,13 @@
         <v>62</v>
       </c>
       <c r="C8" t="s" s="34">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="D8" t="s" s="34">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="E8" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" t="s" s="34">
@@ -11346,13 +11000,13 @@
         <v>62</v>
       </c>
       <c r="C9" t="s" s="34">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D9" t="s" s="34">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="E9" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" t="s" s="34">
@@ -11372,13 +11026,13 @@
         <v>62</v>
       </c>
       <c r="C10" t="s" s="34">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="D10" t="s" s="34">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="E10" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" t="s" s="34">
@@ -11398,13 +11052,13 @@
         <v>79</v>
       </c>
       <c r="C11" t="s" s="34">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="D11" t="s" s="34">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="E11" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" t="s" s="34">
@@ -11424,13 +11078,13 @@
         <v>79</v>
       </c>
       <c r="C12" t="s" s="34">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D12" t="s" s="34">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="E12" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" t="s" s="34">
@@ -11443,16 +11097,16 @@
       <c r="J12" s="38"/>
     </row>
     <row r="13" ht="168.65" customHeight="1">
-      <c r="A13" s="46"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="37"/>
       <c r="C13" t="s" s="34">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D13" t="s" s="34">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E13" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" t="s" s="34">
@@ -11472,13 +11126,13 @@
         <v>95</v>
       </c>
       <c r="C14" t="s" s="34">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s" s="34">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="E14" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" t="s" s="34">
@@ -11491,16 +11145,16 @@
       <c r="J14" s="38"/>
     </row>
     <row r="15" ht="116.3" customHeight="1">
-      <c r="A15" s="46"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="37"/>
       <c r="C15" t="s" s="34">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D15" t="s" s="34">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E15" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" t="s" s="34">
@@ -11520,13 +11174,13 @@
         <v>99</v>
       </c>
       <c r="C16" t="s" s="34">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D16" t="s" s="34">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="E16" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" t="s" s="34">
@@ -11546,13 +11200,13 @@
         <v>97</v>
       </c>
       <c r="C17" t="s" s="34">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="D17" t="s" s="34">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="E17" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" t="s" s="34">
@@ -11570,13 +11224,13 @@
       </c>
       <c r="B18" s="37"/>
       <c r="C18" t="s" s="34">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D18" t="s" s="34">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E18" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" t="s" s="34">
@@ -11596,13 +11250,13 @@
         <v>99</v>
       </c>
       <c r="C19" t="s" s="34">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="D19" t="s" s="34">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="E19" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" t="s" s="34">
@@ -11622,13 +11276,13 @@
         <v>99</v>
       </c>
       <c r="C20" t="s" s="34">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D20" t="s" s="34">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="E20" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" t="s" s="34">
@@ -11648,13 +11302,13 @@
         <v>99</v>
       </c>
       <c r="C21" t="s" s="34">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="D21" t="s" s="34">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="E21" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" t="s" s="34">
@@ -11667,18 +11321,18 @@
       <c r="J21" s="38"/>
     </row>
     <row r="22" ht="129.4" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="48"/>
       <c r="B22" t="s" s="34">
         <v>103</v>
       </c>
       <c r="C22" t="s" s="34">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D22" t="s" s="34">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="E22" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" t="s" s="34">
@@ -11698,13 +11352,13 @@
         <v>117</v>
       </c>
       <c r="C23" t="s" s="34">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="D23" t="s" s="34">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="E23" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" t="s" s="34">
@@ -11724,13 +11378,13 @@
         <v>117</v>
       </c>
       <c r="C24" t="s" s="34">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="D24" t="s" s="34">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="E24" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" t="s" s="34">
@@ -11750,13 +11404,13 @@
         <v>126</v>
       </c>
       <c r="C25" t="s" s="34">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="D25" t="s" s="34">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="E25" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" t="s" s="34">
@@ -11776,13 +11430,13 @@
         <v>126</v>
       </c>
       <c r="C26" t="s" s="34">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="D26" t="s" s="34">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="E26" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" t="s" s="34">
@@ -11802,13 +11456,13 @@
         <v>126</v>
       </c>
       <c r="C27" t="s" s="34">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="D27" t="s" s="34">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E27" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" t="s" s="34">
@@ -11828,13 +11482,13 @@
         <v>135</v>
       </c>
       <c r="C28" t="s" s="34">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="D28" t="s" s="34">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E28" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" t="s" s="34">
@@ -11854,13 +11508,13 @@
         <v>135</v>
       </c>
       <c r="C29" t="s" s="34">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="D29" t="s" s="34">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="E29" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" t="s" s="34">
@@ -11880,13 +11534,13 @@
         <v>135</v>
       </c>
       <c r="C30" t="s" s="34">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="D30" t="s" s="34">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E30" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" t="s" s="34">
@@ -11906,13 +11560,13 @@
         <v>58</v>
       </c>
       <c r="C31" t="s" s="34">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="D31" t="s" s="34">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="E31" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" t="s" s="34">
@@ -11932,13 +11586,13 @@
         <v>58</v>
       </c>
       <c r="C32" t="s" s="34">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="D32" t="s" s="34">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="E32" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" t="s" s="34">
@@ -11958,13 +11612,13 @@
         <v>62</v>
       </c>
       <c r="C33" t="s" s="34">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="D33" t="s" s="34">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="E33" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" t="s" s="34">
@@ -11984,13 +11638,13 @@
         <v>62</v>
       </c>
       <c r="C34" t="s" s="34">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="D34" t="s" s="34">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="E34" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" t="s" s="34">
@@ -12010,13 +11664,13 @@
         <v>62</v>
       </c>
       <c r="C35" t="s" s="34">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="D35" t="s" s="34">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="E35" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" t="s" s="34">
@@ -12036,13 +11690,13 @@
         <v>62</v>
       </c>
       <c r="C36" t="s" s="34">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="D36" t="s" s="34">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="E36" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" t="s" s="34">
@@ -12062,13 +11716,13 @@
         <v>126</v>
       </c>
       <c r="C37" t="s" s="34">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="D37" t="s" s="34">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E37" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" t="s" s="34">
@@ -12088,13 +11742,13 @@
         <v>126</v>
       </c>
       <c r="C38" t="s" s="34">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="D38" t="s" s="34">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E38" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" t="s" s="34">
@@ -12114,13 +11768,13 @@
         <v>126</v>
       </c>
       <c r="C39" t="s" s="34">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="D39" t="s" s="34">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E39" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" t="s" s="34">
@@ -12140,13 +11794,13 @@
         <v>126</v>
       </c>
       <c r="C40" t="s" s="34">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="D40" t="s" s="34">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E40" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" t="s" s="34">
@@ -12166,13 +11820,13 @@
         <v>135</v>
       </c>
       <c r="C41" t="s" s="34">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="D41" t="s" s="34">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E41" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" t="s" s="34">
@@ -12192,13 +11846,13 @@
         <v>135</v>
       </c>
       <c r="C42" t="s" s="34">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="D42" t="s" s="34">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E42" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" t="s" s="34">
@@ -12218,13 +11872,13 @@
         <v>135</v>
       </c>
       <c r="C43" t="s" s="34">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="D43" t="s" s="34">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E43" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" t="s" s="34">
@@ -12244,13 +11898,13 @@
         <v>135</v>
       </c>
       <c r="C44" t="s" s="34">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="D44" t="s" s="34">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="E44" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" t="s" s="34">
@@ -12270,13 +11924,13 @@
         <v>62</v>
       </c>
       <c r="C45" t="s" s="34">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="D45" t="s" s="34">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="E45" t="s" s="35">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" t="s" s="34">
@@ -12296,13 +11950,13 @@
         <v>62</v>
       </c>
       <c r="C46" t="s" s="40">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="D46" t="s" s="40">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="E46" t="s" s="41">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" t="s" s="40">

--- a/documents/テスト項目書(本番環境).xlsx
+++ b/documents/テスト項目書(本番環境).xlsx
@@ -3497,7 +3497,8 @@
 ※同じ内容が複数レコード追加されている場合はエラーとする</t>
   </si>
   <si>
-    <t>予定追加操作に4秒程度かかっているためボタンを押下した数だけ予定が追加される</t>
+    <t>予定追加操作に4秒程度かかっているためボタンを押下した数だけ予定が追加される
+また、権限がないためにデータベースのリージョンが日本に出来ずアメリカになっていることが原因の可能性あり</t>
   </si>
   <si>
     <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下

--- a/documents/テスト項目書(本番環境).xlsx
+++ b/documents/テスト項目書(本番環境).xlsx
@@ -3498,7 +3498,8 @@
   </si>
   <si>
     <t>予定追加操作に4秒程度かかっているためボタンを押下した数だけ予定が追加される
-また、権限がないためにデータベースのリージョンが日本に出来ずアメリカになっていることが原因の可能性あり</t>
+また、権限がないためにデータベースのリージョンが日本に出来ずアメリカになっていることが原因の可能性あり
+「追加」ボタン押下後にボタンを非活性にする処理を追加</t>
   </si>
   <si>
     <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下
@@ -11064,7 +11065,7 @@
       </c>
       <c r="J10" s="39"/>
     </row>
-    <row r="11" ht="87.5" customHeight="1">
+    <row r="11" ht="132" customHeight="1">
       <c r="A11" s="34">
         <v>9</v>
       </c>
@@ -11092,7 +11093,9 @@
       <c r="I11" t="s" s="35">
         <v>193</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="47">
+        <v>45027</v>
+      </c>
     </row>
     <row r="12" ht="91" customHeight="1">
       <c r="A12" s="34">

--- a/documents/テスト項目書(本番環境).xlsx
+++ b/documents/テスト項目書(本番環境).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -77,7 +77,7 @@
         <color indexed="8"/>
         <rFont val="ヒラギノ角ゴ ProN W3"/>
       </rPr>
-      <t>https://samplejava2.azurewebsites.net/login.jsp</t>
+      <t>https://portfoliojava.azurewebsites.net/login.jsp</t>
     </r>
   </si>
   <si>
@@ -2406,6 +2406,18 @@
 ②「ログイン」ボタンを押下</t>
   </si>
   <si>
+    <t>5秒以内にカレンダー画面が表示されることを確認</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>アプリケーションとデータベースを同じ配置にすることで動作遅延を改善</t>
+  </si>
+  <si>
+    <t>必須</t>
+  </si>
+  <si>
     <t>①ログイン画面にて「アカウント登録はこちら」ボタンを押下
 ②アカウント登録画面にて「ニックネーム」の入力欄を空欄にする
 ③「確認する」ボタンを押下</t>
@@ -2580,11 +2592,9 @@
     <t>アカウント登録確認画面にて「登録する」ボタンを押下した日時が「yyyy-MM-dd  hh:mm:ss」の形式で表示されていることを確認</t>
   </si>
   <si>
-    <t>×</t>
-  </si>
-  <si>
     <t>2023/4/5 0:04にアカウント登録をしたがデータベース上では「2023-04-04 15:04:10.000」と表示されている
-タイムゾーンが日本ではなくアメリカになっているため、時刻がずれていることを確認。+9時間で日本の時刻となる</t>
+タイムゾーンが日本ではなくアメリカになっているため、時刻がずれていることを確認。+9時間で日本の時刻となる
+また、アカウント権限がないためSQLデータベースのリージョンを日本に出来ない状態</t>
   </si>
   <si>
     <t>保留</t>
@@ -3170,9 +3180,6 @@
   </si>
   <si>
     <t>予定追加操作では問題ないが、予定編集画面より「終日フラグ」をつけた状態で「保存」ボタンを押下するとエラーが表示される</t>
-  </si>
-  <si>
-    <t>必須</t>
   </si>
   <si>
     <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 @@ -4352,6 +4359,9 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="59" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4360,9 +4370,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5493,7 +5500,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5504,7 +5511,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -5797,7 +5804,7 @@
     <mergeCell ref="C25:F25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" location="" tooltip="" display="https://samplejava2.azurewebsites.net/login.jsp"/>
+    <hyperlink ref="C23" r:id="rId1" location="" tooltip="" display="https://portfoliojava.azurewebsites.net/login.jsp"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7874,7 +7881,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -8023,46 +8030,48 @@
       </c>
       <c r="J5" s="39"/>
     </row>
-    <row r="6" ht="72.95" customHeight="1">
-      <c r="A6" s="34">
+    <row r="6" ht="71.7" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" t="s" s="35">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s" s="35">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s" s="35">
+        <v>153</v>
+      </c>
+      <c r="E6" t="s" s="36">
+        <v>154</v>
+      </c>
+      <c r="F6" s="37">
+        <v>45041</v>
+      </c>
+      <c r="G6" t="s" s="35">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="35">
+        <v>155</v>
+      </c>
+      <c r="I6" t="s" s="35">
+        <v>156</v>
+      </c>
+      <c r="J6" s="48">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="7" ht="72.95" customHeight="1">
+      <c r="A7" s="34">
         <v>4</v>
-      </c>
-      <c r="B6" t="s" s="35">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s" s="35">
-        <v>153</v>
-      </c>
-      <c r="D6" t="s" s="35">
-        <v>154</v>
-      </c>
-      <c r="E6" t="s" s="36">
-        <v>32</v>
-      </c>
-      <c r="F6" s="37">
-        <v>45021</v>
-      </c>
-      <c r="G6" t="s" s="35">
-        <v>16</v>
-      </c>
-      <c r="H6" s="38"/>
-      <c r="I6" t="s" s="35">
-        <v>33</v>
-      </c>
-      <c r="J6" s="39"/>
-    </row>
-    <row r="7" ht="71.7" customHeight="1">
-      <c r="A7" s="34">
-        <v>5</v>
       </c>
       <c r="B7" t="s" s="35">
         <v>39</v>
       </c>
       <c r="C7" t="s" s="35">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s" s="35">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s" s="36">
         <v>32</v>
@@ -8081,16 +8090,16 @@
     </row>
     <row r="8" ht="71.7" customHeight="1">
       <c r="A8" s="34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s" s="35">
         <v>39</v>
       </c>
       <c r="C8" t="s" s="35">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s" s="35">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s" s="36">
         <v>32</v>
@@ -8109,16 +8118,16 @@
     </row>
     <row r="9" ht="71.7" customHeight="1">
       <c r="A9" s="34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s" s="35">
         <v>39</v>
       </c>
       <c r="C9" t="s" s="35">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s" s="35">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s" s="36">
         <v>32</v>
@@ -8135,18 +8144,18 @@
       </c>
       <c r="J9" s="39"/>
     </row>
-    <row r="10" ht="72.95" customHeight="1">
+    <row r="10" ht="71.7" customHeight="1">
       <c r="A10" s="34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s" s="35">
         <v>39</v>
       </c>
       <c r="C10" t="s" s="35">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s" s="35">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s" s="36">
         <v>32</v>
@@ -8163,18 +8172,18 @@
       </c>
       <c r="J10" s="39"/>
     </row>
-    <row r="11" ht="114.75" customHeight="1">
+    <row r="11" ht="72.95" customHeight="1">
       <c r="A11" s="34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s" s="35">
         <v>39</v>
       </c>
       <c r="C11" t="s" s="35">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s" s="35">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s" s="36">
         <v>32</v>
@@ -8191,18 +8200,18 @@
       </c>
       <c r="J11" s="39"/>
     </row>
-    <row r="12" ht="112.45" customHeight="1">
+    <row r="12" ht="114.75" customHeight="1">
       <c r="A12" s="34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s" s="35">
         <v>39</v>
       </c>
       <c r="C12" t="s" s="35">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s" s="35">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E12" t="s" s="36">
         <v>32</v>
@@ -8219,18 +8228,18 @@
       </c>
       <c r="J12" s="39"/>
     </row>
-    <row r="13" ht="99.8" customHeight="1">
+    <row r="13" ht="112.45" customHeight="1">
       <c r="A13" s="34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s" s="35">
         <v>39</v>
       </c>
       <c r="C13" t="s" s="35">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s" s="35">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s" s="36">
         <v>32</v>
@@ -8247,18 +8256,18 @@
       </c>
       <c r="J13" s="39"/>
     </row>
-    <row r="14" ht="71.7" customHeight="1">
+    <row r="14" ht="99.8" customHeight="1">
       <c r="A14" s="34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s" s="35">
         <v>39</v>
       </c>
       <c r="C14" t="s" s="35">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s" s="35">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E14" t="s" s="36">
         <v>32</v>
@@ -8277,16 +8286,16 @@
     </row>
     <row r="15" ht="71.7" customHeight="1">
       <c r="A15" s="34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s" s="35">
         <v>39</v>
       </c>
       <c r="C15" t="s" s="35">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s" s="35">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s" s="36">
         <v>32</v>
@@ -8303,18 +8312,18 @@
       </c>
       <c r="J15" s="39"/>
     </row>
-    <row r="16" ht="87.95" customHeight="1">
+    <row r="16" ht="71.7" customHeight="1">
       <c r="A16" s="34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s" s="35">
         <v>39</v>
       </c>
       <c r="C16" t="s" s="35">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s" s="35">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s" s="36">
         <v>32</v>
@@ -8331,18 +8340,18 @@
       </c>
       <c r="J16" s="39"/>
     </row>
-    <row r="17" ht="132.95" customHeight="1">
+    <row r="17" ht="87.95" customHeight="1">
       <c r="A17" s="34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s" s="35">
         <v>39</v>
       </c>
       <c r="C17" t="s" s="35">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s" s="35">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s" s="36">
         <v>32</v>
@@ -8359,18 +8368,18 @@
       </c>
       <c r="J17" s="39"/>
     </row>
-    <row r="18" ht="150" customHeight="1">
+    <row r="18" ht="132.95" customHeight="1">
       <c r="A18" s="34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s" s="35">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s" s="35">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s" s="35">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s" s="36">
         <v>32</v>
@@ -8387,18 +8396,18 @@
       </c>
       <c r="J18" s="39"/>
     </row>
-    <row r="19" ht="182" customHeight="1">
+    <row r="19" ht="150" customHeight="1">
       <c r="A19" s="34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s" s="35">
         <v>47</v>
       </c>
       <c r="C19" t="s" s="35">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D19" t="s" s="35">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s" s="36">
         <v>32</v>
@@ -8415,18 +8424,18 @@
       </c>
       <c r="J19" s="39"/>
     </row>
-    <row r="20" ht="194.95" customHeight="1">
+    <row r="20" ht="182" customHeight="1">
       <c r="A20" s="34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s" s="35">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s" s="35">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s" s="35">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E20" t="s" s="36">
         <v>32</v>
@@ -8443,18 +8452,18 @@
       </c>
       <c r="J20" s="39"/>
     </row>
-    <row r="21" ht="151.95" customHeight="1">
+    <row r="21" ht="194.95" customHeight="1">
       <c r="A21" s="34">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s" s="35">
         <v>57</v>
       </c>
       <c r="C21" t="s" s="35">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D21" t="s" s="35">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E21" t="s" s="36">
         <v>32</v>
@@ -8471,18 +8480,18 @@
       </c>
       <c r="J21" s="39"/>
     </row>
-    <row r="22" ht="165" customHeight="1">
+    <row r="22" ht="151.95" customHeight="1">
       <c r="A22" s="34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s" s="35">
         <v>57</v>
       </c>
       <c r="C22" t="s" s="35">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s" s="35">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E22" t="s" s="36">
         <v>32</v>
@@ -8499,18 +8508,18 @@
       </c>
       <c r="J22" s="39"/>
     </row>
-    <row r="23" ht="151.95" customHeight="1">
+    <row r="23" ht="165" customHeight="1">
       <c r="A23" s="34">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s" s="35">
         <v>57</v>
       </c>
       <c r="C23" t="s" s="35">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s" s="35">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s" s="36">
         <v>32</v>
@@ -8529,16 +8538,16 @@
     </row>
     <row r="24" ht="151.95" customHeight="1">
       <c r="A24" s="34">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s" s="35">
         <v>57</v>
       </c>
       <c r="C24" t="s" s="35">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s" s="35">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E24" t="s" s="36">
         <v>32</v>
@@ -8557,16 +8566,16 @@
     </row>
     <row r="25" ht="151.95" customHeight="1">
       <c r="A25" s="34">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s" s="35">
         <v>57</v>
       </c>
       <c r="C25" t="s" s="35">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s" s="35">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E25" t="s" s="36">
         <v>32</v>
@@ -8583,21 +8592,21 @@
       </c>
       <c r="J25" s="39"/>
     </row>
-    <row r="26" ht="165" customHeight="1">
+    <row r="26" ht="151.95" customHeight="1">
       <c r="A26" s="34">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s" s="35">
         <v>57</v>
       </c>
       <c r="C26" t="s" s="35">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D26" t="s" s="35">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E26" t="s" s="36">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="F26" s="37">
         <v>45021</v>
@@ -8605,29 +8614,27 @@
       <c r="G26" t="s" s="35">
         <v>16</v>
       </c>
-      <c r="H26" t="s" s="35">
-        <v>192</v>
-      </c>
+      <c r="H26" s="38"/>
       <c r="I26" t="s" s="35">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="J26" s="39"/>
     </row>
-    <row r="27" ht="165" customHeight="1">
+    <row r="27" ht="183" customHeight="1">
       <c r="A27" s="34">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s" s="35">
         <v>57</v>
       </c>
       <c r="C27" t="s" s="35">
+        <v>193</v>
+      </c>
+      <c r="D27" t="s" s="35">
         <v>194</v>
       </c>
-      <c r="D27" t="s" s="35">
-        <v>190</v>
-      </c>
       <c r="E27" t="s" s="36">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="F27" s="37">
         <v>45021</v>
@@ -8636,28 +8643,28 @@
         <v>16</v>
       </c>
       <c r="H27" t="s" s="35">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I27" t="s" s="35">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J27" s="39"/>
     </row>
-    <row r="28" ht="81.15" customHeight="1">
+    <row r="28" ht="183" customHeight="1">
       <c r="A28" s="34">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s" s="35">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s" s="35">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D28" t="s" s="35">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E28" t="s" s="36">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="F28" s="37">
         <v>45021</v>
@@ -8665,24 +8672,26 @@
       <c r="G28" t="s" s="35">
         <v>16</v>
       </c>
-      <c r="H28" s="38"/>
+      <c r="H28" t="s" s="35">
+        <v>195</v>
+      </c>
       <c r="I28" t="s" s="35">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="J28" s="39"/>
     </row>
     <row r="29" ht="81.15" customHeight="1">
       <c r="A29" s="34">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C29" t="s" s="35">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s" s="35">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E29" t="s" s="36">
         <v>32</v>
@@ -8699,18 +8708,18 @@
       </c>
       <c r="J29" s="39"/>
     </row>
-    <row r="30" ht="113.5" customHeight="1">
+    <row r="30" ht="81.15" customHeight="1">
       <c r="A30" s="34">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C30" t="s" s="35">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D30" t="s" s="35">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E30" t="s" s="36">
         <v>32</v>
@@ -8727,9 +8736,9 @@
       </c>
       <c r="J30" s="39"/>
     </row>
-    <row r="31" ht="110.9" customHeight="1">
+    <row r="31" ht="113.5" customHeight="1">
       <c r="A31" s="34">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s" s="35">
         <v>61</v>
@@ -8738,7 +8747,7 @@
         <v>200</v>
       </c>
       <c r="D31" t="s" s="35">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s" s="36">
         <v>32</v>
@@ -8757,16 +8766,16 @@
     </row>
     <row r="32" ht="110.9" customHeight="1">
       <c r="A32" s="34">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C32" t="s" s="35">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D32" t="s" s="35">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E32" t="s" s="36">
         <v>32</v>
@@ -8785,16 +8794,16 @@
     </row>
     <row r="33" ht="110.9" customHeight="1">
       <c r="A33" s="34">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C33" t="s" s="35">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D33" t="s" s="35">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E33" t="s" s="36">
         <v>32</v>
@@ -8813,16 +8822,16 @@
     </row>
     <row r="34" ht="110.9" customHeight="1">
       <c r="A34" s="34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C34" t="s" s="35">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D34" t="s" s="35">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E34" t="s" s="36">
         <v>32</v>
@@ -8839,18 +8848,18 @@
       </c>
       <c r="J34" s="39"/>
     </row>
-    <row r="35" ht="168.3" customHeight="1">
+    <row r="35" ht="110.9" customHeight="1">
       <c r="A35" s="34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C35" t="s" s="35">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s" s="35">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E35" t="s" s="36">
         <v>32</v>
@@ -8867,18 +8876,18 @@
       </c>
       <c r="J35" s="39"/>
     </row>
-    <row r="36" ht="141.35" customHeight="1">
+    <row r="36" ht="168.3" customHeight="1">
       <c r="A36" s="34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C36" t="s" s="35">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s" s="35">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s" s="36">
         <v>32</v>
@@ -8897,16 +8906,16 @@
     </row>
     <row r="37" ht="141.35" customHeight="1">
       <c r="A37" s="34">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C37" t="s" s="35">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D37" t="s" s="35">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E37" t="s" s="36">
         <v>32</v>
@@ -8923,18 +8932,18 @@
       </c>
       <c r="J37" s="39"/>
     </row>
-    <row r="38" ht="172.75" customHeight="1">
+    <row r="38" ht="141.35" customHeight="1">
       <c r="A38" s="34">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C38" t="s" s="35">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D38" t="s" s="35">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E38" t="s" s="36">
         <v>32</v>
@@ -8951,18 +8960,18 @@
       </c>
       <c r="J38" s="39"/>
     </row>
-    <row r="39" ht="107.95" customHeight="1">
+    <row r="39" ht="172.75" customHeight="1">
       <c r="A39" s="34">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C39" t="s" s="35">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D39" t="s" s="35">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E39" t="s" s="36">
         <v>32</v>
@@ -8979,18 +8988,18 @@
       </c>
       <c r="J39" s="39"/>
     </row>
-    <row r="40" ht="110.15" customHeight="1">
+    <row r="40" ht="107.95" customHeight="1">
       <c r="A40" s="34">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C40" t="s" s="35">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D40" t="s" s="35">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E40" t="s" s="36">
         <v>32</v>
@@ -9009,16 +9018,16 @@
     </row>
     <row r="41" ht="110.15" customHeight="1">
       <c r="A41" s="34">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C41" t="s" s="35">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D41" t="s" s="35">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E41" t="s" s="36">
         <v>32</v>
@@ -9035,18 +9044,18 @@
       </c>
       <c r="J41" s="39"/>
     </row>
-    <row r="42" ht="114.8" customHeight="1">
+    <row r="42" ht="110.15" customHeight="1">
       <c r="A42" s="34">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C42" t="s" s="35">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D42" t="s" s="35">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E42" t="s" s="36">
         <v>32</v>
@@ -9063,18 +9072,18 @@
       </c>
       <c r="J42" s="39"/>
     </row>
-    <row r="43" ht="96.3" customHeight="1">
+    <row r="43" ht="114.8" customHeight="1">
       <c r="A43" s="34">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C43" t="s" s="35">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D43" t="s" s="35">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E43" t="s" s="36">
         <v>32</v>
@@ -9091,18 +9100,18 @@
       </c>
       <c r="J43" s="39"/>
     </row>
-    <row r="44" ht="105" customHeight="1">
+    <row r="44" ht="96.3" customHeight="1">
       <c r="A44" s="34">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C44" t="s" s="35">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s" s="35">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E44" t="s" s="36">
         <v>32</v>
@@ -9119,18 +9128,18 @@
       </c>
       <c r="J44" s="39"/>
     </row>
-    <row r="45" ht="106" customHeight="1">
+    <row r="45" ht="105" customHeight="1">
       <c r="A45" s="34">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C45" t="s" s="35">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D45" t="s" s="35">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E45" t="s" s="36">
         <v>32</v>
@@ -9147,18 +9156,18 @@
       </c>
       <c r="J45" s="39"/>
     </row>
-    <row r="46" ht="124" customHeight="1">
+    <row r="46" ht="106" customHeight="1">
       <c r="A46" s="34">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s" s="35">
         <v>61</v>
       </c>
       <c r="C46" t="s" s="35">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D46" t="s" s="35">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E46" t="s" s="36">
         <v>32</v>
@@ -9175,18 +9184,18 @@
       </c>
       <c r="J46" s="39"/>
     </row>
-    <row r="47" ht="122" customHeight="1">
+    <row r="47" ht="124" customHeight="1">
       <c r="A47" s="34">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s" s="35">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s" s="35">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D47" t="s" s="35">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s" s="36">
         <v>32</v>
@@ -9203,18 +9212,18 @@
       </c>
       <c r="J47" s="39"/>
     </row>
-    <row r="48" ht="104.4" customHeight="1">
+    <row r="48" ht="122" customHeight="1">
       <c r="A48" s="34">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s" s="35">
         <v>78</v>
       </c>
       <c r="C48" t="s" s="35">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D48" t="s" s="35">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E48" t="s" s="36">
         <v>32</v>
@@ -9231,18 +9240,18 @@
       </c>
       <c r="J48" s="39"/>
     </row>
-    <row r="49" ht="127.25" customHeight="1">
+    <row r="49" ht="104.4" customHeight="1">
       <c r="A49" s="34">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s" s="35">
         <v>78</v>
       </c>
       <c r="C49" t="s" s="35">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D49" t="s" s="35">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E49" t="s" s="36">
         <v>32</v>
@@ -9259,18 +9268,18 @@
       </c>
       <c r="J49" s="39"/>
     </row>
-    <row r="50" ht="117.95" customHeight="1">
+    <row r="50" ht="127.25" customHeight="1">
       <c r="A50" s="34">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s" s="35">
         <v>78</v>
       </c>
       <c r="C50" t="s" s="35">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D50" t="s" s="35">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s" s="36">
         <v>32</v>
@@ -9289,16 +9298,16 @@
     </row>
     <row r="51" ht="117.95" customHeight="1">
       <c r="A51" s="34">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s" s="35">
         <v>78</v>
       </c>
       <c r="C51" t="s" s="35">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D51" t="s" s="35">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E51" t="s" s="36">
         <v>32</v>
@@ -9317,16 +9326,16 @@
     </row>
     <row r="52" ht="117.95" customHeight="1">
       <c r="A52" s="34">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s" s="35">
         <v>78</v>
       </c>
       <c r="C52" t="s" s="35">
+        <v>242</v>
+      </c>
+      <c r="D52" t="s" s="35">
         <v>240</v>
-      </c>
-      <c r="D52" t="s" s="35">
-        <v>237</v>
       </c>
       <c r="E52" t="s" s="36">
         <v>32</v>
@@ -9343,18 +9352,18 @@
       </c>
       <c r="J52" s="39"/>
     </row>
-    <row r="53" ht="218" customHeight="1">
+    <row r="53" ht="117.95" customHeight="1">
       <c r="A53" s="34">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s" s="35">
         <v>78</v>
       </c>
       <c r="C53" t="s" s="35">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D53" t="s" s="35">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E53" t="s" s="36">
         <v>32</v>
@@ -9371,18 +9380,18 @@
       </c>
       <c r="J53" s="39"/>
     </row>
-    <row r="54" ht="204.4" customHeight="1">
+    <row r="54" ht="218" customHeight="1">
       <c r="A54" s="34">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s" s="35">
         <v>78</v>
       </c>
       <c r="C54" t="s" s="35">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D54" t="s" s="35">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E54" t="s" s="36">
         <v>32</v>
@@ -9399,18 +9408,18 @@
       </c>
       <c r="J54" s="39"/>
     </row>
-    <row r="55" ht="226.65" customHeight="1">
+    <row r="55" ht="204.4" customHeight="1">
       <c r="A55" s="34">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s" s="35">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s" s="35">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D55" t="s" s="35">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E55" t="s" s="36">
         <v>32</v>
@@ -9427,18 +9436,18 @@
       </c>
       <c r="J55" s="39"/>
     </row>
-    <row r="56" ht="218" customHeight="1">
+    <row r="56" ht="226.65" customHeight="1">
       <c r="A56" s="34">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s" s="35">
         <v>94</v>
       </c>
       <c r="C56" t="s" s="35">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D56" t="s" s="35">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s" s="36">
         <v>32</v>
@@ -9455,18 +9464,18 @@
       </c>
       <c r="J56" s="39"/>
     </row>
-    <row r="57" ht="220.85" customHeight="1">
+    <row r="57" ht="218" customHeight="1">
       <c r="A57" s="34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s" s="35">
         <v>94</v>
       </c>
       <c r="C57" t="s" s="35">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D57" t="s" s="35">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E57" t="s" s="36">
         <v>32</v>
@@ -9485,16 +9494,16 @@
     </row>
     <row r="58" ht="220.85" customHeight="1">
       <c r="A58" s="34">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s" s="35">
         <v>94</v>
       </c>
       <c r="C58" t="s" s="35">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D58" t="s" s="35">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E58" t="s" s="36">
         <v>32</v>
@@ -9513,16 +9522,16 @@
     </row>
     <row r="59" ht="220.85" customHeight="1">
       <c r="A59" s="34">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s" s="35">
         <v>94</v>
       </c>
       <c r="C59" t="s" s="35">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D59" t="s" s="35">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E59" t="s" s="36">
         <v>32</v>
@@ -9541,16 +9550,16 @@
     </row>
     <row r="60" ht="220.85" customHeight="1">
       <c r="A60" s="34">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s" s="35">
         <v>94</v>
       </c>
       <c r="C60" t="s" s="35">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D60" t="s" s="35">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E60" t="s" s="36">
         <v>32</v>
@@ -9567,9 +9576,9 @@
       </c>
       <c r="J60" s="39"/>
     </row>
-    <row r="61" ht="216.8" customHeight="1">
+    <row r="61" ht="220.85" customHeight="1">
       <c r="A61" s="34">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s" s="35">
         <v>94</v>
@@ -9578,7 +9587,7 @@
         <v>256</v>
       </c>
       <c r="D61" t="s" s="35">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E61" t="s" s="36">
         <v>32</v>
@@ -9597,16 +9606,16 @@
     </row>
     <row r="62" ht="216.8" customHeight="1">
       <c r="A62" s="34">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s" s="35">
         <v>94</v>
       </c>
       <c r="C62" t="s" s="35">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D62" t="s" s="35">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E62" t="s" s="36">
         <v>32</v>
@@ -9623,18 +9632,18 @@
       </c>
       <c r="J62" s="39"/>
     </row>
-    <row r="63" ht="212.5" customHeight="1">
+    <row r="63" ht="216.8" customHeight="1">
       <c r="A63" s="34">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s" s="35">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C63" t="s" s="35">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D63" t="s" s="35">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E63" t="s" s="36">
         <v>32</v>
@@ -9651,18 +9660,18 @@
       </c>
       <c r="J63" s="39"/>
     </row>
-    <row r="64" ht="188.65" customHeight="1">
+    <row r="64" ht="212.5" customHeight="1">
       <c r="A64" s="34">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s" s="35">
         <v>96</v>
       </c>
       <c r="C64" t="s" s="35">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D64" t="s" s="35">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E64" t="s" s="36">
         <v>32</v>
@@ -9679,18 +9688,18 @@
       </c>
       <c r="J64" s="39"/>
     </row>
-    <row r="65" ht="193.1" customHeight="1">
+    <row r="65" ht="188.65" customHeight="1">
       <c r="A65" s="34">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s" s="35">
         <v>96</v>
       </c>
       <c r="C65" t="s" s="35">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D65" t="s" s="35">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E65" t="s" s="36">
         <v>32</v>
@@ -9707,18 +9716,18 @@
       </c>
       <c r="J65" s="39"/>
     </row>
-    <row r="66" ht="229.15" customHeight="1">
+    <row r="66" ht="193.1" customHeight="1">
       <c r="A66" s="34">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s" s="35">
         <v>96</v>
       </c>
       <c r="C66" t="s" s="35">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D66" t="s" s="35">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E66" t="s" s="36">
         <v>32</v>
@@ -9735,18 +9744,18 @@
       </c>
       <c r="J66" s="39"/>
     </row>
-    <row r="67" ht="207.75" customHeight="1">
+    <row r="67" ht="229.15" customHeight="1">
       <c r="A67" s="34">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s" s="35">
         <v>96</v>
       </c>
       <c r="C67" t="s" s="35">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D67" t="s" s="35">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E67" t="s" s="36">
         <v>32</v>
@@ -9763,18 +9772,18 @@
       </c>
       <c r="J67" s="39"/>
     </row>
-    <row r="68" ht="240" customHeight="1">
+    <row r="68" ht="207.75" customHeight="1">
       <c r="A68" s="34">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s" s="35">
         <v>96</v>
       </c>
       <c r="C68" t="s" s="35">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D68" t="s" s="35">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E68" t="s" s="36">
         <v>32</v>
@@ -9791,18 +9800,18 @@
       </c>
       <c r="J68" s="39"/>
     </row>
-    <row r="69" ht="209.3" customHeight="1">
+    <row r="69" ht="240" customHeight="1">
       <c r="A69" s="34">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s" s="35">
         <v>96</v>
       </c>
       <c r="C69" t="s" s="35">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D69" t="s" s="35">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E69" t="s" s="36">
         <v>32</v>
@@ -9819,18 +9828,18 @@
       </c>
       <c r="J69" s="39"/>
     </row>
-    <row r="70" ht="255" customHeight="1">
+    <row r="70" ht="209.3" customHeight="1">
       <c r="A70" s="34">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s" s="35">
         <v>96</v>
       </c>
       <c r="C70" t="s" s="35">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D70" t="s" s="35">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E70" t="s" s="36">
         <v>32</v>
@@ -9849,16 +9858,16 @@
     </row>
     <row r="71" ht="255" customHeight="1">
       <c r="A71" s="34">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s" s="35">
         <v>96</v>
       </c>
       <c r="C71" t="s" s="35">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s" s="35">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E71" t="s" s="36">
         <v>32</v>
@@ -9875,18 +9884,18 @@
       </c>
       <c r="J71" s="39"/>
     </row>
-    <row r="72" ht="238" customHeight="1">
+    <row r="72" ht="255" customHeight="1">
       <c r="A72" s="34">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s" s="35">
         <v>96</v>
       </c>
       <c r="C72" t="s" s="35">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D72" t="s" s="35">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E72" t="s" s="36">
         <v>32</v>
@@ -9905,16 +9914,16 @@
     </row>
     <row r="73" ht="238" customHeight="1">
       <c r="A73" s="34">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s" s="35">
         <v>96</v>
       </c>
       <c r="C73" t="s" s="35">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D73" t="s" s="35">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E73" t="s" s="36">
         <v>32</v>
@@ -9931,18 +9940,18 @@
       </c>
       <c r="J73" s="39"/>
     </row>
-    <row r="74" ht="255" customHeight="1">
+    <row r="74" ht="238" customHeight="1">
       <c r="A74" s="34">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s" s="35">
         <v>96</v>
       </c>
       <c r="C74" t="s" s="35">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D74" t="s" s="35">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E74" t="s" s="36">
         <v>32</v>
@@ -9959,18 +9968,18 @@
       </c>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" ht="289" customHeight="1">
+    <row r="75" ht="255" customHeight="1">
       <c r="A75" s="34">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s" s="35">
         <v>96</v>
       </c>
       <c r="C75" t="s" s="35">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D75" t="s" s="35">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E75" t="s" s="36">
         <v>32</v>
@@ -9987,21 +9996,21 @@
       </c>
       <c r="J75" s="39"/>
     </row>
-    <row r="76" ht="255" customHeight="1">
+    <row r="76" ht="289" customHeight="1">
       <c r="A76" s="34">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s" s="35">
         <v>96</v>
       </c>
       <c r="C76" t="s" s="35">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D76" t="s" s="35">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E76" t="s" s="36">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="F76" s="37">
         <v>45021</v>
@@ -10009,29 +10018,27 @@
       <c r="G76" t="s" s="35">
         <v>16</v>
       </c>
-      <c r="H76" t="s" s="35">
-        <v>288</v>
-      </c>
+      <c r="H76" s="38"/>
       <c r="I76" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="J76" s="39"/>
+    </row>
+    <row r="77" ht="255" customHeight="1">
+      <c r="A77" s="34">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s" s="35">
+        <v>96</v>
+      </c>
+      <c r="C77" t="s" s="35">
         <v>289</v>
       </c>
-      <c r="J76" s="47">
-        <v>45022</v>
-      </c>
-    </row>
-    <row r="77" ht="139.8" customHeight="1">
-      <c r="A77" s="34">
-        <v>75</v>
-      </c>
-      <c r="B77" s="38"/>
-      <c r="C77" t="s" s="35">
+      <c r="D77" t="s" s="35">
         <v>290</v>
       </c>
-      <c r="D77" t="s" s="35">
-        <v>237</v>
-      </c>
       <c r="E77" t="s" s="36">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="F77" s="37">
         <v>45021</v>
@@ -10039,22 +10046,26 @@
       <c r="G77" t="s" s="35">
         <v>16</v>
       </c>
-      <c r="H77" s="38"/>
+      <c r="H77" t="s" s="35">
+        <v>291</v>
+      </c>
       <c r="I77" t="s" s="35">
-        <v>33</v>
-      </c>
-      <c r="J77" s="39"/>
+        <v>156</v>
+      </c>
+      <c r="J77" s="48">
+        <v>45022</v>
+      </c>
     </row>
     <row r="78" ht="139.8" customHeight="1">
       <c r="A78" s="34">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="38"/>
       <c r="C78" t="s" s="35">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D78" t="s" s="35">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E78" t="s" s="36">
         <v>32</v>
@@ -10073,14 +10084,14 @@
     </row>
     <row r="79" ht="139.8" customHeight="1">
       <c r="A79" s="34">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="38"/>
       <c r="C79" t="s" s="35">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D79" t="s" s="35">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E79" t="s" s="36">
         <v>32</v>
@@ -10099,14 +10110,14 @@
     </row>
     <row r="80" ht="139.8" customHeight="1">
       <c r="A80" s="34">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="38"/>
       <c r="C80" t="s" s="35">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D80" t="s" s="35">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E80" t="s" s="36">
         <v>32</v>
@@ -10123,18 +10134,16 @@
       </c>
       <c r="J80" s="39"/>
     </row>
-    <row r="81" ht="148.7" customHeight="1">
+    <row r="81" ht="139.8" customHeight="1">
       <c r="A81" s="34">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s" s="35">
-        <v>98</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B81" s="38"/>
       <c r="C81" t="s" s="35">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D81" t="s" s="35">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="E81" t="s" s="36">
         <v>32</v>
@@ -10153,7 +10162,7 @@
     </row>
     <row r="82" ht="148.7" customHeight="1">
       <c r="A82" s="34">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s" s="35">
         <v>98</v>
@@ -10162,7 +10171,7 @@
         <v>296</v>
       </c>
       <c r="D82" t="s" s="35">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E82" t="s" s="36">
         <v>32</v>
@@ -10179,18 +10188,18 @@
       </c>
       <c r="J82" s="39"/>
     </row>
-    <row r="83" ht="151.15" customHeight="1">
+    <row r="83" ht="148.7" customHeight="1">
       <c r="A83" s="34">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s" s="35">
         <v>98</v>
       </c>
       <c r="C83" t="s" s="35">
+        <v>298</v>
+      </c>
+      <c r="D83" t="s" s="35">
         <v>297</v>
-      </c>
-      <c r="D83" t="s" s="35">
-        <v>298</v>
       </c>
       <c r="E83" t="s" s="36">
         <v>32</v>
@@ -10207,12 +10216,12 @@
       </c>
       <c r="J83" s="39"/>
     </row>
-    <row r="84" ht="112.15" customHeight="1">
+    <row r="84" ht="151.15" customHeight="1">
       <c r="A84" s="34">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s" s="35">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s" s="35">
         <v>299</v>
@@ -10235,9 +10244,9 @@
       </c>
       <c r="J84" s="39"/>
     </row>
-    <row r="85" ht="107.75" customHeight="1">
+    <row r="85" ht="112.15" customHeight="1">
       <c r="A85" s="34">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s" s="35">
         <v>116</v>
@@ -10263,9 +10272,9 @@
       </c>
       <c r="J85" s="39"/>
     </row>
-    <row r="86" ht="208.95" customHeight="1">
+    <row r="86" ht="107.75" customHeight="1">
       <c r="A86" s="34">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s" s="35">
         <v>116</v>
@@ -10293,7 +10302,7 @@
     </row>
     <row r="87" ht="208.95" customHeight="1">
       <c r="A87" s="34">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s" s="35">
         <v>116</v>
@@ -10319,9 +10328,9 @@
       </c>
       <c r="J87" s="39"/>
     </row>
-    <row r="88" ht="207" customHeight="1">
+    <row r="88" ht="208.95" customHeight="1">
       <c r="A88" s="34">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s" s="35">
         <v>116</v>
@@ -10347,12 +10356,12 @@
       </c>
       <c r="J88" s="39"/>
     </row>
-    <row r="89" ht="124.2" customHeight="1">
+    <row r="89" ht="207" customHeight="1">
       <c r="A89" s="34">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s" s="35">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C89" t="s" s="35">
         <v>309</v>
@@ -10375,9 +10384,9 @@
       </c>
       <c r="J89" s="39"/>
     </row>
-    <row r="90" ht="202.9" customHeight="1">
+    <row r="90" ht="124.2" customHeight="1">
       <c r="A90" s="34">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s" s="35">
         <v>125</v>
@@ -10405,7 +10414,7 @@
     </row>
     <row r="91" ht="202.9" customHeight="1">
       <c r="A91" s="34">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s" s="35">
         <v>125</v>
@@ -10414,7 +10423,7 @@
         <v>313</v>
       </c>
       <c r="D91" t="s" s="35">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E91" t="s" s="36">
         <v>32</v>
@@ -10433,16 +10442,16 @@
     </row>
     <row r="92" ht="202.9" customHeight="1">
       <c r="A92" s="34">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s" s="35">
         <v>125</v>
       </c>
       <c r="C92" t="s" s="35">
+        <v>315</v>
+      </c>
+      <c r="D92" t="s" s="35">
         <v>314</v>
-      </c>
-      <c r="D92" t="s" s="35">
-        <v>315</v>
       </c>
       <c r="E92" t="s" s="36">
         <v>32</v>
@@ -10459,9 +10468,9 @@
       </c>
       <c r="J92" s="39"/>
     </row>
-    <row r="93" ht="190.35" customHeight="1">
+    <row r="93" ht="202.9" customHeight="1">
       <c r="A93" s="34">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s" s="35">
         <v>125</v>
@@ -10470,7 +10479,7 @@
         <v>316</v>
       </c>
       <c r="D93" t="s" s="35">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="E93" t="s" s="36">
         <v>32</v>
@@ -10489,16 +10498,16 @@
     </row>
     <row r="94" ht="190.35" customHeight="1">
       <c r="A94" s="34">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s" s="35">
         <v>125</v>
       </c>
       <c r="C94" t="s" s="35">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D94" t="s" s="35">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E94" t="s" s="36">
         <v>32</v>
@@ -10515,18 +10524,18 @@
       </c>
       <c r="J94" s="39"/>
     </row>
-    <row r="95" ht="276" customHeight="1">
+    <row r="95" ht="190.35" customHeight="1">
       <c r="A95" s="34">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s" s="35">
         <v>125</v>
       </c>
       <c r="C95" t="s" s="35">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D95" t="s" s="35">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E95" t="s" s="36">
         <v>32</v>
@@ -10543,12 +10552,12 @@
       </c>
       <c r="J95" s="39"/>
     </row>
-    <row r="96" ht="126.9" customHeight="1">
+    <row r="96" ht="276" customHeight="1">
       <c r="A96" s="34">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s" s="35">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C96" t="s" s="35">
         <v>320</v>
@@ -10571,9 +10580,9 @@
       </c>
       <c r="J96" s="39"/>
     </row>
-    <row r="97" ht="127.45" customHeight="1">
+    <row r="97" ht="126.9" customHeight="1">
       <c r="A97" s="34">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s" s="35">
         <v>134</v>
@@ -10599,9 +10608,9 @@
       </c>
       <c r="J97" s="39"/>
     </row>
-    <row r="98" ht="129.35" customHeight="1">
+    <row r="98" ht="127.45" customHeight="1">
       <c r="A98" s="34">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s" s="35">
         <v>134</v>
@@ -10610,7 +10619,7 @@
         <v>324</v>
       </c>
       <c r="D98" t="s" s="35">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="E98" t="s" s="36">
         <v>32</v>
@@ -10629,16 +10638,16 @@
     </row>
     <row r="99" ht="129.35" customHeight="1">
       <c r="A99" s="34">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s" s="35">
         <v>134</v>
       </c>
       <c r="C99" t="s" s="35">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D99" t="s" s="35">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E99" t="s" s="36">
         <v>32</v>
@@ -10657,7 +10666,7 @@
     </row>
     <row r="100" ht="129.35" customHeight="1">
       <c r="A100" s="34">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s" s="35">
         <v>134</v>
@@ -10683,9 +10692,9 @@
       </c>
       <c r="J100" s="39"/>
     </row>
-    <row r="101" ht="278" customHeight="1">
+    <row r="101" ht="129.35" customHeight="1">
       <c r="A101" s="34">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s" s="35">
         <v>134</v>
@@ -10711,12 +10720,12 @@
       </c>
       <c r="J101" s="39"/>
     </row>
-    <row r="102" ht="156.6" customHeight="1">
+    <row r="102" ht="278" customHeight="1">
       <c r="A102" s="34">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s" s="35">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C102" t="s" s="35">
         <v>331</v>
@@ -10739,29 +10748,57 @@
       </c>
       <c r="J102" s="39"/>
     </row>
-    <row r="103" ht="123.3" customHeight="1">
-      <c r="A103" s="38"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" t="s" s="35">
-        <v>33</v>
-      </c>
-      <c r="J103" s="38"/>
+    <row r="103" ht="156.6" customHeight="1">
+      <c r="A103" s="40">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s" s="41">
+        <v>141</v>
+      </c>
+      <c r="C103" t="s" s="41">
+        <v>333</v>
+      </c>
+      <c r="D103" t="s" s="41">
+        <v>334</v>
+      </c>
+      <c r="E103" t="s" s="42">
+        <v>32</v>
+      </c>
+      <c r="F103" s="43">
+        <v>45021</v>
+      </c>
+      <c r="G103" t="s" s="41">
+        <v>16</v>
+      </c>
+      <c r="H103" s="44"/>
+      <c r="I103" t="s" s="41">
+        <v>33</v>
+      </c>
+      <c r="J103" s="45"/>
+    </row>
+    <row r="104" ht="123.3" customHeight="1">
+      <c r="A104" s="32"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" t="s" s="29">
+        <v>33</v>
+      </c>
+      <c r="J104" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E103">
       <formula1>"○,×,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I104">
       <formula1>"必須,不要,保留,   -"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10786,15 +10823,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.6016" style="48" customWidth="1"/>
-    <col min="2" max="2" width="24.8125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="44.0859" style="48" customWidth="1"/>
-    <col min="4" max="4" width="64.375" style="48" customWidth="1"/>
-    <col min="5" max="5" width="9" style="48" customWidth="1"/>
-    <col min="6" max="7" width="19.6016" style="48" customWidth="1"/>
-    <col min="8" max="8" width="38.0859" style="48" customWidth="1"/>
-    <col min="9" max="10" width="28.4219" style="48" customWidth="1"/>
-    <col min="11" max="16384" width="19.6016" style="48" customWidth="1"/>
+    <col min="1" max="1" width="19.6016" style="49" customWidth="1"/>
+    <col min="2" max="2" width="24.8125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="44.0859" style="49" customWidth="1"/>
+    <col min="4" max="4" width="64.375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="9" style="49" customWidth="1"/>
+    <col min="6" max="7" width="19.6016" style="49" customWidth="1"/>
+    <col min="8" max="8" width="38.0859" style="49" customWidth="1"/>
+    <col min="9" max="10" width="28.4219" style="49" customWidth="1"/>
+    <col min="11" max="16384" width="19.6016" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
@@ -10809,7 +10846,7 @@
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="49"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" ht="20.45" customHeight="1">
       <c r="A2" t="s" s="24">
@@ -10830,7 +10867,7 @@
       <c r="F2" t="s" s="25">
         <v>24</v>
       </c>
-      <c r="G2" t="s" s="50">
+      <c r="G2" t="s" s="25">
         <v>25</v>
       </c>
       <c r="H2" t="s" s="25">
@@ -10851,10 +10888,10 @@
         <v>29</v>
       </c>
       <c r="C3" t="s" s="29">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D3" t="s" s="29">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E3" t="s" s="30">
         <v>32</v>
@@ -10862,7 +10899,7 @@
       <c r="F3" s="31">
         <v>45022</v>
       </c>
-      <c r="G3" t="s" s="35">
+      <c r="G3" t="s" s="29">
         <v>16</v>
       </c>
       <c r="H3" s="32"/>
@@ -10879,10 +10916,10 @@
         <v>47</v>
       </c>
       <c r="C4" t="s" s="35">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D4" t="s" s="35">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E4" t="s" s="36">
         <v>32</v>
@@ -10907,10 +10944,10 @@
         <v>57</v>
       </c>
       <c r="C5" t="s" s="35">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s" s="35">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E5" t="s" s="36">
         <v>32</v>
@@ -10935,10 +10972,10 @@
         <v>57</v>
       </c>
       <c r="C6" t="s" s="35">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D6" t="s" s="35">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E6" t="s" s="36">
         <v>32</v>
@@ -10961,10 +10998,10 @@
         <v>61</v>
       </c>
       <c r="C7" t="s" s="35">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D7" t="s" s="35">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E7" t="s" s="36">
         <v>32</v>
@@ -10989,10 +11026,10 @@
         <v>61</v>
       </c>
       <c r="C8" t="s" s="35">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D8" t="s" s="35">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E8" t="s" s="36">
         <v>32</v>
@@ -11017,10 +11054,10 @@
         <v>61</v>
       </c>
       <c r="C9" t="s" s="35">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D9" t="s" s="35">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E9" t="s" s="36">
         <v>32</v>
@@ -11045,10 +11082,10 @@
         <v>78</v>
       </c>
       <c r="C10" t="s" s="35">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s" s="35">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E10" t="s" s="36">
         <v>32</v>
@@ -11073,13 +11110,13 @@
         <v>78</v>
       </c>
       <c r="C11" t="s" s="35">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D11" t="s" s="35">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E11" t="s" s="36">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="F11" s="37">
         <v>45022</v>
@@ -11088,12 +11125,12 @@
         <v>16</v>
       </c>
       <c r="H11" t="s" s="35">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I11" t="s" s="35">
-        <v>193</v>
-      </c>
-      <c r="J11" s="47">
+        <v>196</v>
+      </c>
+      <c r="J11" s="48">
         <v>45027</v>
       </c>
     </row>
@@ -11105,10 +11142,10 @@
         <v>94</v>
       </c>
       <c r="C12" t="s" s="35">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D12" t="s" s="35">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E12" t="s" s="36">
         <v>32</v>
@@ -11133,10 +11170,10 @@
         <v>98</v>
       </c>
       <c r="C13" t="s" s="35">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D13" t="s" s="35">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E13" t="s" s="36">
         <v>32</v>
@@ -11161,13 +11198,13 @@
         <v>96</v>
       </c>
       <c r="C14" t="s" s="35">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D14" t="s" s="35">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E14" t="s" s="36">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="F14" s="37">
         <v>45022</v>
@@ -11176,12 +11213,12 @@
         <v>16</v>
       </c>
       <c r="H14" t="s" s="35">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I14" t="s" s="35">
-        <v>289</v>
-      </c>
-      <c r="J14" s="47">
+        <v>156</v>
+      </c>
+      <c r="J14" s="48">
         <v>45022</v>
       </c>
     </row>
@@ -11191,10 +11228,10 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" t="s" s="35">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D15" t="s" s="35">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E15" t="s" s="36">
         <v>32</v>
@@ -11219,10 +11256,10 @@
         <v>98</v>
       </c>
       <c r="C16" t="s" s="35">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D16" t="s" s="35">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E16" t="s" s="36">
         <v>32</v>
@@ -11247,10 +11284,10 @@
         <v>98</v>
       </c>
       <c r="C17" t="s" s="35">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D17" t="s" s="35">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E17" t="s" s="36">
         <v>32</v>
@@ -11275,10 +11312,10 @@
         <v>98</v>
       </c>
       <c r="C18" t="s" s="35">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D18" t="s" s="35">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E18" t="s" s="36">
         <v>32</v>
@@ -11303,10 +11340,10 @@
         <v>102</v>
       </c>
       <c r="C19" t="s" s="35">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D19" t="s" s="35">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E19" t="s" s="36">
         <v>32</v>
@@ -11331,10 +11368,10 @@
         <v>116</v>
       </c>
       <c r="C20" t="s" s="35">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D20" t="s" s="35">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E20" t="s" s="36">
         <v>32</v>
@@ -11359,10 +11396,10 @@
         <v>116</v>
       </c>
       <c r="C21" t="s" s="35">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D21" t="s" s="35">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E21" t="s" s="36">
         <v>32</v>
@@ -11387,10 +11424,10 @@
         <v>125</v>
       </c>
       <c r="C22" t="s" s="35">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D22" t="s" s="35">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E22" t="s" s="36">
         <v>32</v>
@@ -11415,10 +11452,10 @@
         <v>125</v>
       </c>
       <c r="C23" t="s" s="35">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D23" t="s" s="35">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E23" t="s" s="36">
         <v>32</v>
@@ -11443,10 +11480,10 @@
         <v>125</v>
       </c>
       <c r="C24" t="s" s="35">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D24" t="s" s="35">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E24" t="s" s="36">
         <v>32</v>
@@ -11471,10 +11508,10 @@
         <v>134</v>
       </c>
       <c r="C25" t="s" s="35">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D25" t="s" s="35">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E25" t="s" s="36">
         <v>32</v>
@@ -11499,10 +11536,10 @@
         <v>134</v>
       </c>
       <c r="C26" t="s" s="35">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D26" t="s" s="35">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E26" t="s" s="36">
         <v>32</v>
@@ -11527,10 +11564,10 @@
         <v>134</v>
       </c>
       <c r="C27" t="s" s="35">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D27" t="s" s="35">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E27" t="s" s="36">
         <v>32</v>
@@ -11555,10 +11592,10 @@
         <v>61</v>
       </c>
       <c r="C28" t="s" s="35">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D28" t="s" s="35">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E28" t="s" s="36">
         <v>32</v>
@@ -11583,10 +11620,10 @@
         <v>61</v>
       </c>
       <c r="C29" t="s" s="35">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D29" t="s" s="35">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E29" t="s" s="36">
         <v>32</v>
@@ -11611,10 +11648,10 @@
         <v>61</v>
       </c>
       <c r="C30" t="s" s="35">
+        <v>384</v>
+      </c>
+      <c r="D30" t="s" s="35">
         <v>382</v>
-      </c>
-      <c r="D30" t="s" s="35">
-        <v>380</v>
       </c>
       <c r="E30" t="s" s="36">
         <v>32</v>
@@ -11639,10 +11676,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="s" s="35">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D31" t="s" s="35">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E31" t="s" s="36">
         <v>32</v>
@@ -11667,10 +11704,10 @@
         <v>125</v>
       </c>
       <c r="C32" t="s" s="35">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D32" t="s" s="35">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E32" t="s" s="36">
         <v>32</v>
@@ -11695,10 +11732,10 @@
         <v>125</v>
       </c>
       <c r="C33" t="s" s="35">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D33" t="s" s="35">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E33" t="s" s="36">
         <v>32</v>
@@ -11723,10 +11760,10 @@
         <v>125</v>
       </c>
       <c r="C34" t="s" s="35">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D34" t="s" s="35">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E34" t="s" s="36">
         <v>32</v>
@@ -11751,10 +11788,10 @@
         <v>125</v>
       </c>
       <c r="C35" t="s" s="35">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D35" t="s" s="35">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E35" t="s" s="36">
         <v>32</v>
@@ -11779,10 +11816,10 @@
         <v>134</v>
       </c>
       <c r="C36" t="s" s="35">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D36" t="s" s="35">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E36" t="s" s="36">
         <v>32</v>
@@ -11807,10 +11844,10 @@
         <v>134</v>
       </c>
       <c r="C37" t="s" s="35">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D37" t="s" s="35">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E37" t="s" s="36">
         <v>32</v>
@@ -11835,10 +11872,10 @@
         <v>134</v>
       </c>
       <c r="C38" t="s" s="35">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D38" t="s" s="35">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E38" t="s" s="36">
         <v>32</v>
@@ -11863,10 +11900,10 @@
         <v>134</v>
       </c>
       <c r="C39" t="s" s="35">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D39" t="s" s="35">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E39" t="s" s="36">
         <v>32</v>
@@ -11891,10 +11928,10 @@
         <v>61</v>
       </c>
       <c r="C40" t="s" s="35">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D40" t="s" s="35">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E40" t="s" s="36">
         <v>32</v>
@@ -11919,10 +11956,10 @@
         <v>61</v>
       </c>
       <c r="C41" t="s" s="41">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D41" t="s" s="41">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E41" t="s" s="42">
         <v>32</v>

--- a/documents/テスト項目書(本番環境).xlsx
+++ b/documents/テスト項目書(本番環境).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -2552,6 +2552,203 @@
 ⑤データベースにて「user_name」の項目を確認</t>
   </si>
   <si>
+    <t>2023/4/5
+2023/5/19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">2023/4/5時点では問題なかったが2023/5/19確認時にニックネーム部分が？？？で表示され、英数字の表記であれば問題なく登録されることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">■原因
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">列の照合順序を指定していなかったことが原因の可能性あり
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">以下操作実行にて改善を確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> login_user_transaction </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>COLUMN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="16"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>user_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="17"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>COLLATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> Japanese_CI_AS;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <t>①ログイン画面にて「アカウント登録はこちら」ボタンを押下
 ②アカウント登録画面にて「ニックネーム、メールアドレス、パスワード」をそれぞれエラーの出ない形式で入力する
 ③アカウント登録画面にて「確認する」ボタンを押下
@@ -3800,7 +3997,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3877,6 +4074,26 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="16"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="17"/>
+      <name val="Menlo Regular"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4395,6 +4612,8 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffd5d5d5"/>
       <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffc700c7"/>
+      <rgbColor rgb="ff098658"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -5500,7 +5719,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5511,7 +5730,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -8508,7 +8727,7 @@
       </c>
       <c r="J22" s="39"/>
     </row>
-    <row r="23" ht="165" customHeight="1">
+    <row r="23" ht="252" customHeight="1">
       <c r="A23" s="34">
         <v>20</v>
       </c>
@@ -8524,17 +8743,21 @@
       <c r="E23" t="s" s="36">
         <v>32</v>
       </c>
-      <c r="F23" s="37">
-        <v>45021</v>
+      <c r="F23" t="s" s="35">
+        <v>187</v>
       </c>
       <c r="G23" t="s" s="35">
         <v>16</v>
       </c>
-      <c r="H23" s="38"/>
+      <c r="H23" t="s" s="35">
+        <v>188</v>
+      </c>
       <c r="I23" t="s" s="35">
-        <v>33</v>
-      </c>
-      <c r="J23" s="39"/>
+        <v>156</v>
+      </c>
+      <c r="J23" s="48">
+        <v>45065</v>
+      </c>
     </row>
     <row r="24" ht="151.95" customHeight="1">
       <c r="A24" s="34">
@@ -8544,10 +8767,10 @@
         <v>57</v>
       </c>
       <c r="C24" t="s" s="35">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D24" t="s" s="35">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E24" t="s" s="36">
         <v>32</v>
@@ -8572,10 +8795,10 @@
         <v>57</v>
       </c>
       <c r="C25" t="s" s="35">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D25" t="s" s="35">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E25" t="s" s="36">
         <v>32</v>
@@ -8600,10 +8823,10 @@
         <v>57</v>
       </c>
       <c r="C26" t="s" s="35">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D26" t="s" s="35">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E26" t="s" s="36">
         <v>32</v>
@@ -8628,10 +8851,10 @@
         <v>57</v>
       </c>
       <c r="C27" t="s" s="35">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D27" t="s" s="35">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E27" t="s" s="36">
         <v>154</v>
@@ -8643,10 +8866,10 @@
         <v>16</v>
       </c>
       <c r="H27" t="s" s="35">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I27" t="s" s="35">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J27" s="39"/>
     </row>
@@ -8658,10 +8881,10 @@
         <v>57</v>
       </c>
       <c r="C28" t="s" s="35">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D28" t="s" s="35">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E28" t="s" s="36">
         <v>154</v>
@@ -8673,10 +8896,10 @@
         <v>16</v>
       </c>
       <c r="H28" t="s" s="35">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I28" t="s" s="35">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J28" s="39"/>
     </row>
@@ -8688,10 +8911,10 @@
         <v>61</v>
       </c>
       <c r="C29" t="s" s="35">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D29" t="s" s="35">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E29" t="s" s="36">
         <v>32</v>
@@ -8716,10 +8939,10 @@
         <v>61</v>
       </c>
       <c r="C30" t="s" s="35">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D30" t="s" s="35">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E30" t="s" s="36">
         <v>32</v>
@@ -8744,10 +8967,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="s" s="35">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D31" t="s" s="35">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E31" t="s" s="36">
         <v>32</v>
@@ -8772,10 +8995,10 @@
         <v>61</v>
       </c>
       <c r="C32" t="s" s="35">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D32" t="s" s="35">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E32" t="s" s="36">
         <v>32</v>
@@ -8800,10 +9023,10 @@
         <v>61</v>
       </c>
       <c r="C33" t="s" s="35">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s" s="35">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s" s="36">
         <v>32</v>
@@ -8828,10 +9051,10 @@
         <v>61</v>
       </c>
       <c r="C34" t="s" s="35">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D34" t="s" s="35">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E34" t="s" s="36">
         <v>32</v>
@@ -8856,10 +9079,10 @@
         <v>61</v>
       </c>
       <c r="C35" t="s" s="35">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D35" t="s" s="35">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E35" t="s" s="36">
         <v>32</v>
@@ -8884,10 +9107,10 @@
         <v>61</v>
       </c>
       <c r="C36" t="s" s="35">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D36" t="s" s="35">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E36" t="s" s="36">
         <v>32</v>
@@ -8912,10 +9135,10 @@
         <v>61</v>
       </c>
       <c r="C37" t="s" s="35">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D37" t="s" s="35">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E37" t="s" s="36">
         <v>32</v>
@@ -8940,10 +9163,10 @@
         <v>61</v>
       </c>
       <c r="C38" t="s" s="35">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D38" t="s" s="35">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E38" t="s" s="36">
         <v>32</v>
@@ -8968,10 +9191,10 @@
         <v>61</v>
       </c>
       <c r="C39" t="s" s="35">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D39" t="s" s="35">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E39" t="s" s="36">
         <v>32</v>
@@ -8996,10 +9219,10 @@
         <v>61</v>
       </c>
       <c r="C40" t="s" s="35">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D40" t="s" s="35">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E40" t="s" s="36">
         <v>32</v>
@@ -9024,10 +9247,10 @@
         <v>61</v>
       </c>
       <c r="C41" t="s" s="35">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D41" t="s" s="35">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E41" t="s" s="36">
         <v>32</v>
@@ -9052,10 +9275,10 @@
         <v>61</v>
       </c>
       <c r="C42" t="s" s="35">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D42" t="s" s="35">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E42" t="s" s="36">
         <v>32</v>
@@ -9080,10 +9303,10 @@
         <v>61</v>
       </c>
       <c r="C43" t="s" s="35">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D43" t="s" s="35">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E43" t="s" s="36">
         <v>32</v>
@@ -9108,10 +9331,10 @@
         <v>61</v>
       </c>
       <c r="C44" t="s" s="35">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D44" t="s" s="35">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E44" t="s" s="36">
         <v>32</v>
@@ -9136,10 +9359,10 @@
         <v>61</v>
       </c>
       <c r="C45" t="s" s="35">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D45" t="s" s="35">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E45" t="s" s="36">
         <v>32</v>
@@ -9164,10 +9387,10 @@
         <v>61</v>
       </c>
       <c r="C46" t="s" s="35">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D46" t="s" s="35">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E46" t="s" s="36">
         <v>32</v>
@@ -9192,10 +9415,10 @@
         <v>61</v>
       </c>
       <c r="C47" t="s" s="35">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D47" t="s" s="35">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E47" t="s" s="36">
         <v>32</v>
@@ -9220,10 +9443,10 @@
         <v>78</v>
       </c>
       <c r="C48" t="s" s="35">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D48" t="s" s="35">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s" s="36">
         <v>32</v>
@@ -9248,10 +9471,10 @@
         <v>78</v>
       </c>
       <c r="C49" t="s" s="35">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D49" t="s" s="35">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E49" t="s" s="36">
         <v>32</v>
@@ -9276,10 +9499,10 @@
         <v>78</v>
       </c>
       <c r="C50" t="s" s="35">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s" s="35">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E50" t="s" s="36">
         <v>32</v>
@@ -9304,10 +9527,10 @@
         <v>78</v>
       </c>
       <c r="C51" t="s" s="35">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D51" t="s" s="35">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E51" t="s" s="36">
         <v>32</v>
@@ -9332,10 +9555,10 @@
         <v>78</v>
       </c>
       <c r="C52" t="s" s="35">
+        <v>244</v>
+      </c>
+      <c r="D52" t="s" s="35">
         <v>242</v>
-      </c>
-      <c r="D52" t="s" s="35">
-        <v>240</v>
       </c>
       <c r="E52" t="s" s="36">
         <v>32</v>
@@ -9360,10 +9583,10 @@
         <v>78</v>
       </c>
       <c r="C53" t="s" s="35">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D53" t="s" s="35">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E53" t="s" s="36">
         <v>32</v>
@@ -9388,10 +9611,10 @@
         <v>78</v>
       </c>
       <c r="C54" t="s" s="35">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D54" t="s" s="35">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E54" t="s" s="36">
         <v>32</v>
@@ -9416,10 +9639,10 @@
         <v>78</v>
       </c>
       <c r="C55" t="s" s="35">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D55" t="s" s="35">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E55" t="s" s="36">
         <v>32</v>
@@ -9444,10 +9667,10 @@
         <v>94</v>
       </c>
       <c r="C56" t="s" s="35">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D56" t="s" s="35">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E56" t="s" s="36">
         <v>32</v>
@@ -9472,10 +9695,10 @@
         <v>94</v>
       </c>
       <c r="C57" t="s" s="35">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D57" t="s" s="35">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E57" t="s" s="36">
         <v>32</v>
@@ -9500,10 +9723,10 @@
         <v>94</v>
       </c>
       <c r="C58" t="s" s="35">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D58" t="s" s="35">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E58" t="s" s="36">
         <v>32</v>
@@ -9528,10 +9751,10 @@
         <v>94</v>
       </c>
       <c r="C59" t="s" s="35">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D59" t="s" s="35">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E59" t="s" s="36">
         <v>32</v>
@@ -9556,10 +9779,10 @@
         <v>94</v>
       </c>
       <c r="C60" t="s" s="35">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D60" t="s" s="35">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E60" t="s" s="36">
         <v>32</v>
@@ -9584,10 +9807,10 @@
         <v>94</v>
       </c>
       <c r="C61" t="s" s="35">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D61" t="s" s="35">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E61" t="s" s="36">
         <v>32</v>
@@ -9612,10 +9835,10 @@
         <v>94</v>
       </c>
       <c r="C62" t="s" s="35">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D62" t="s" s="35">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E62" t="s" s="36">
         <v>32</v>
@@ -9640,10 +9863,10 @@
         <v>94</v>
       </c>
       <c r="C63" t="s" s="35">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D63" t="s" s="35">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E63" t="s" s="36">
         <v>32</v>
@@ -9668,10 +9891,10 @@
         <v>96</v>
       </c>
       <c r="C64" t="s" s="35">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D64" t="s" s="35">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E64" t="s" s="36">
         <v>32</v>
@@ -9696,10 +9919,10 @@
         <v>96</v>
       </c>
       <c r="C65" t="s" s="35">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D65" t="s" s="35">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E65" t="s" s="36">
         <v>32</v>
@@ -9724,10 +9947,10 @@
         <v>96</v>
       </c>
       <c r="C66" t="s" s="35">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D66" t="s" s="35">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E66" t="s" s="36">
         <v>32</v>
@@ -9752,10 +9975,10 @@
         <v>96</v>
       </c>
       <c r="C67" t="s" s="35">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D67" t="s" s="35">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E67" t="s" s="36">
         <v>32</v>
@@ -9780,10 +10003,10 @@
         <v>96</v>
       </c>
       <c r="C68" t="s" s="35">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D68" t="s" s="35">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E68" t="s" s="36">
         <v>32</v>
@@ -9808,10 +10031,10 @@
         <v>96</v>
       </c>
       <c r="C69" t="s" s="35">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D69" t="s" s="35">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E69" t="s" s="36">
         <v>32</v>
@@ -9836,10 +10059,10 @@
         <v>96</v>
       </c>
       <c r="C70" t="s" s="35">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D70" t="s" s="35">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E70" t="s" s="36">
         <v>32</v>
@@ -9864,10 +10087,10 @@
         <v>96</v>
       </c>
       <c r="C71" t="s" s="35">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D71" t="s" s="35">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E71" t="s" s="36">
         <v>32</v>
@@ -9892,10 +10115,10 @@
         <v>96</v>
       </c>
       <c r="C72" t="s" s="35">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D72" t="s" s="35">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E72" t="s" s="36">
         <v>32</v>
@@ -9920,10 +10143,10 @@
         <v>96</v>
       </c>
       <c r="C73" t="s" s="35">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D73" t="s" s="35">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E73" t="s" s="36">
         <v>32</v>
@@ -9948,10 +10171,10 @@
         <v>96</v>
       </c>
       <c r="C74" t="s" s="35">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D74" t="s" s="35">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E74" t="s" s="36">
         <v>32</v>
@@ -9976,10 +10199,10 @@
         <v>96</v>
       </c>
       <c r="C75" t="s" s="35">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D75" t="s" s="35">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E75" t="s" s="36">
         <v>32</v>
@@ -10004,10 +10227,10 @@
         <v>96</v>
       </c>
       <c r="C76" t="s" s="35">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D76" t="s" s="35">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E76" t="s" s="36">
         <v>32</v>
@@ -10032,10 +10255,10 @@
         <v>96</v>
       </c>
       <c r="C77" t="s" s="35">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D77" t="s" s="35">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E77" t="s" s="36">
         <v>154</v>
@@ -10047,7 +10270,7 @@
         <v>16</v>
       </c>
       <c r="H77" t="s" s="35">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I77" t="s" s="35">
         <v>156</v>
@@ -10062,10 +10285,10 @@
       </c>
       <c r="B78" s="38"/>
       <c r="C78" t="s" s="35">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D78" t="s" s="35">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E78" t="s" s="36">
         <v>32</v>
@@ -10088,10 +10311,10 @@
       </c>
       <c r="B79" s="38"/>
       <c r="C79" t="s" s="35">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D79" t="s" s="35">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E79" t="s" s="36">
         <v>32</v>
@@ -10114,10 +10337,10 @@
       </c>
       <c r="B80" s="38"/>
       <c r="C80" t="s" s="35">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D80" t="s" s="35">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E80" t="s" s="36">
         <v>32</v>
@@ -10140,10 +10363,10 @@
       </c>
       <c r="B81" s="38"/>
       <c r="C81" t="s" s="35">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D81" t="s" s="35">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E81" t="s" s="36">
         <v>32</v>
@@ -10168,10 +10391,10 @@
         <v>98</v>
       </c>
       <c r="C82" t="s" s="35">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D82" t="s" s="35">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E82" t="s" s="36">
         <v>32</v>
@@ -10196,10 +10419,10 @@
         <v>98</v>
       </c>
       <c r="C83" t="s" s="35">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D83" t="s" s="35">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E83" t="s" s="36">
         <v>32</v>
@@ -10224,10 +10447,10 @@
         <v>98</v>
       </c>
       <c r="C84" t="s" s="35">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D84" t="s" s="35">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E84" t="s" s="36">
         <v>32</v>
@@ -10252,10 +10475,10 @@
         <v>116</v>
       </c>
       <c r="C85" t="s" s="35">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D85" t="s" s="35">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E85" t="s" s="36">
         <v>32</v>
@@ -10280,10 +10503,10 @@
         <v>116</v>
       </c>
       <c r="C86" t="s" s="35">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D86" t="s" s="35">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E86" t="s" s="36">
         <v>32</v>
@@ -10308,10 +10531,10 @@
         <v>116</v>
       </c>
       <c r="C87" t="s" s="35">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D87" t="s" s="35">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E87" t="s" s="36">
         <v>32</v>
@@ -10336,10 +10559,10 @@
         <v>116</v>
       </c>
       <c r="C88" t="s" s="35">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D88" t="s" s="35">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E88" t="s" s="36">
         <v>32</v>
@@ -10364,10 +10587,10 @@
         <v>116</v>
       </c>
       <c r="C89" t="s" s="35">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D89" t="s" s="35">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E89" t="s" s="36">
         <v>32</v>
@@ -10392,10 +10615,10 @@
         <v>125</v>
       </c>
       <c r="C90" t="s" s="35">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D90" t="s" s="35">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E90" t="s" s="36">
         <v>32</v>
@@ -10420,10 +10643,10 @@
         <v>125</v>
       </c>
       <c r="C91" t="s" s="35">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D91" t="s" s="35">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E91" t="s" s="36">
         <v>32</v>
@@ -10448,10 +10671,10 @@
         <v>125</v>
       </c>
       <c r="C92" t="s" s="35">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D92" t="s" s="35">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E92" t="s" s="36">
         <v>32</v>
@@ -10476,10 +10699,10 @@
         <v>125</v>
       </c>
       <c r="C93" t="s" s="35">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D93" t="s" s="35">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E93" t="s" s="36">
         <v>32</v>
@@ -10504,10 +10727,10 @@
         <v>125</v>
       </c>
       <c r="C94" t="s" s="35">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D94" t="s" s="35">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E94" t="s" s="36">
         <v>32</v>
@@ -10532,10 +10755,10 @@
         <v>125</v>
       </c>
       <c r="C95" t="s" s="35">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D95" t="s" s="35">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E95" t="s" s="36">
         <v>32</v>
@@ -10560,10 +10783,10 @@
         <v>125</v>
       </c>
       <c r="C96" t="s" s="35">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D96" t="s" s="35">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E96" t="s" s="36">
         <v>32</v>
@@ -10588,10 +10811,10 @@
         <v>134</v>
       </c>
       <c r="C97" t="s" s="35">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D97" t="s" s="35">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E97" t="s" s="36">
         <v>32</v>
@@ -10616,10 +10839,10 @@
         <v>134</v>
       </c>
       <c r="C98" t="s" s="35">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D98" t="s" s="35">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E98" t="s" s="36">
         <v>32</v>
@@ -10644,10 +10867,10 @@
         <v>134</v>
       </c>
       <c r="C99" t="s" s="35">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D99" t="s" s="35">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E99" t="s" s="36">
         <v>32</v>
@@ -10672,10 +10895,10 @@
         <v>134</v>
       </c>
       <c r="C100" t="s" s="35">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D100" t="s" s="35">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E100" t="s" s="36">
         <v>32</v>
@@ -10700,10 +10923,10 @@
         <v>134</v>
       </c>
       <c r="C101" t="s" s="35">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D101" t="s" s="35">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E101" t="s" s="36">
         <v>32</v>
@@ -10728,10 +10951,10 @@
         <v>134</v>
       </c>
       <c r="C102" t="s" s="35">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D102" t="s" s="35">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E102" t="s" s="36">
         <v>32</v>
@@ -10756,10 +10979,10 @@
         <v>141</v>
       </c>
       <c r="C103" t="s" s="41">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D103" t="s" s="41">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E103" t="s" s="42">
         <v>32</v>
@@ -10888,10 +11111,10 @@
         <v>29</v>
       </c>
       <c r="C3" t="s" s="29">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D3" t="s" s="29">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E3" t="s" s="30">
         <v>32</v>
@@ -10916,10 +11139,10 @@
         <v>47</v>
       </c>
       <c r="C4" t="s" s="35">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D4" t="s" s="35">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E4" t="s" s="36">
         <v>32</v>
@@ -10944,10 +11167,10 @@
         <v>57</v>
       </c>
       <c r="C5" t="s" s="35">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D5" t="s" s="35">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E5" t="s" s="36">
         <v>32</v>
@@ -10972,10 +11195,10 @@
         <v>57</v>
       </c>
       <c r="C6" t="s" s="35">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D6" t="s" s="35">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E6" t="s" s="36">
         <v>32</v>
@@ -10998,10 +11221,10 @@
         <v>61</v>
       </c>
       <c r="C7" t="s" s="35">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D7" t="s" s="35">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E7" t="s" s="36">
         <v>32</v>
@@ -11026,10 +11249,10 @@
         <v>61</v>
       </c>
       <c r="C8" t="s" s="35">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D8" t="s" s="35">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E8" t="s" s="36">
         <v>32</v>
@@ -11054,10 +11277,10 @@
         <v>61</v>
       </c>
       <c r="C9" t="s" s="35">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D9" t="s" s="35">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E9" t="s" s="36">
         <v>32</v>
@@ -11082,10 +11305,10 @@
         <v>78</v>
       </c>
       <c r="C10" t="s" s="35">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D10" t="s" s="35">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E10" t="s" s="36">
         <v>32</v>
@@ -11110,10 +11333,10 @@
         <v>78</v>
       </c>
       <c r="C11" t="s" s="35">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D11" t="s" s="35">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E11" t="s" s="36">
         <v>154</v>
@@ -11125,10 +11348,10 @@
         <v>16</v>
       </c>
       <c r="H11" t="s" s="35">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I11" t="s" s="35">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J11" s="48">
         <v>45027</v>
@@ -11142,10 +11365,10 @@
         <v>94</v>
       </c>
       <c r="C12" t="s" s="35">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D12" t="s" s="35">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E12" t="s" s="36">
         <v>32</v>
@@ -11170,10 +11393,10 @@
         <v>98</v>
       </c>
       <c r="C13" t="s" s="35">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D13" t="s" s="35">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E13" t="s" s="36">
         <v>32</v>
@@ -11198,10 +11421,10 @@
         <v>96</v>
       </c>
       <c r="C14" t="s" s="35">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D14" t="s" s="35">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E14" t="s" s="36">
         <v>154</v>
@@ -11213,7 +11436,7 @@
         <v>16</v>
       </c>
       <c r="H14" t="s" s="35">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I14" t="s" s="35">
         <v>156</v>
@@ -11228,10 +11451,10 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" t="s" s="35">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D15" t="s" s="35">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E15" t="s" s="36">
         <v>32</v>
@@ -11256,10 +11479,10 @@
         <v>98</v>
       </c>
       <c r="C16" t="s" s="35">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D16" t="s" s="35">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E16" t="s" s="36">
         <v>32</v>
@@ -11284,10 +11507,10 @@
         <v>98</v>
       </c>
       <c r="C17" t="s" s="35">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D17" t="s" s="35">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E17" t="s" s="36">
         <v>32</v>
@@ -11312,10 +11535,10 @@
         <v>98</v>
       </c>
       <c r="C18" t="s" s="35">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D18" t="s" s="35">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E18" t="s" s="36">
         <v>32</v>
@@ -11340,10 +11563,10 @@
         <v>102</v>
       </c>
       <c r="C19" t="s" s="35">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D19" t="s" s="35">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E19" t="s" s="36">
         <v>32</v>
@@ -11368,10 +11591,10 @@
         <v>116</v>
       </c>
       <c r="C20" t="s" s="35">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D20" t="s" s="35">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E20" t="s" s="36">
         <v>32</v>
@@ -11396,10 +11619,10 @@
         <v>116</v>
       </c>
       <c r="C21" t="s" s="35">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D21" t="s" s="35">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E21" t="s" s="36">
         <v>32</v>
@@ -11424,10 +11647,10 @@
         <v>125</v>
       </c>
       <c r="C22" t="s" s="35">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D22" t="s" s="35">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E22" t="s" s="36">
         <v>32</v>
@@ -11452,10 +11675,10 @@
         <v>125</v>
       </c>
       <c r="C23" t="s" s="35">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D23" t="s" s="35">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E23" t="s" s="36">
         <v>32</v>
@@ -11480,10 +11703,10 @@
         <v>125</v>
       </c>
       <c r="C24" t="s" s="35">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D24" t="s" s="35">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E24" t="s" s="36">
         <v>32</v>
@@ -11508,10 +11731,10 @@
         <v>134</v>
       </c>
       <c r="C25" t="s" s="35">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D25" t="s" s="35">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E25" t="s" s="36">
         <v>32</v>
@@ -11536,10 +11759,10 @@
         <v>134</v>
       </c>
       <c r="C26" t="s" s="35">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D26" t="s" s="35">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E26" t="s" s="36">
         <v>32</v>
@@ -11564,10 +11787,10 @@
         <v>134</v>
       </c>
       <c r="C27" t="s" s="35">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D27" t="s" s="35">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E27" t="s" s="36">
         <v>32</v>
@@ -11592,10 +11815,10 @@
         <v>61</v>
       </c>
       <c r="C28" t="s" s="35">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D28" t="s" s="35">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E28" t="s" s="36">
         <v>32</v>
@@ -11620,10 +11843,10 @@
         <v>61</v>
       </c>
       <c r="C29" t="s" s="35">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D29" t="s" s="35">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E29" t="s" s="36">
         <v>32</v>
@@ -11648,10 +11871,10 @@
         <v>61</v>
       </c>
       <c r="C30" t="s" s="35">
+        <v>386</v>
+      </c>
+      <c r="D30" t="s" s="35">
         <v>384</v>
-      </c>
-      <c r="D30" t="s" s="35">
-        <v>382</v>
       </c>
       <c r="E30" t="s" s="36">
         <v>32</v>
@@ -11676,10 +11899,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="s" s="35">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D31" t="s" s="35">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E31" t="s" s="36">
         <v>32</v>
@@ -11704,10 +11927,10 @@
         <v>125</v>
       </c>
       <c r="C32" t="s" s="35">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D32" t="s" s="35">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E32" t="s" s="36">
         <v>32</v>
@@ -11732,10 +11955,10 @@
         <v>125</v>
       </c>
       <c r="C33" t="s" s="35">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D33" t="s" s="35">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E33" t="s" s="36">
         <v>32</v>
@@ -11760,10 +11983,10 @@
         <v>125</v>
       </c>
       <c r="C34" t="s" s="35">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D34" t="s" s="35">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E34" t="s" s="36">
         <v>32</v>
@@ -11788,10 +12011,10 @@
         <v>125</v>
       </c>
       <c r="C35" t="s" s="35">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D35" t="s" s="35">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E35" t="s" s="36">
         <v>32</v>
@@ -11816,10 +12039,10 @@
         <v>134</v>
       </c>
       <c r="C36" t="s" s="35">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D36" t="s" s="35">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E36" t="s" s="36">
         <v>32</v>
@@ -11844,10 +12067,10 @@
         <v>134</v>
       </c>
       <c r="C37" t="s" s="35">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D37" t="s" s="35">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E37" t="s" s="36">
         <v>32</v>
@@ -11872,10 +12095,10 @@
         <v>134</v>
       </c>
       <c r="C38" t="s" s="35">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D38" t="s" s="35">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E38" t="s" s="36">
         <v>32</v>
@@ -11900,10 +12123,10 @@
         <v>134</v>
       </c>
       <c r="C39" t="s" s="35">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D39" t="s" s="35">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E39" t="s" s="36">
         <v>32</v>
@@ -11928,10 +12151,10 @@
         <v>61</v>
       </c>
       <c r="C40" t="s" s="35">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D40" t="s" s="35">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E40" t="s" s="36">
         <v>32</v>
@@ -11956,10 +12179,10 @@
         <v>61</v>
       </c>
       <c r="C41" t="s" s="41">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D41" t="s" s="41">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E41" t="s" s="42">
         <v>32</v>
